--- a/output/non_existing_flights.xlsx
+++ b/output/non_existing_flights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="737">
   <si>
     <t>iata</t>
   </si>
@@ -22,7 +22,7 @@
     <t>icao</t>
   </si>
   <si>
-    <t>total_delegates</t>
+    <t>total_delegates_GDP</t>
   </si>
   <si>
     <t>country_code</t>
@@ -43,57 +43,216 @@
     <t>existing_flight</t>
   </si>
   <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>PEK</t>
+  </si>
+  <si>
     <t>LOS</t>
   </si>
   <si>
+    <t>CGK</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
     <t>RBA</t>
   </si>
   <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>NBO</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
     <t>YOW</t>
   </si>
   <si>
+    <t>TLV</t>
+  </si>
+  <si>
+    <t>KUL</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>ICN</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>EBB</t>
+  </si>
+  <si>
     <t>FIH</t>
   </si>
   <si>
+    <t>SVO</t>
+  </si>
+  <si>
+    <t>CAI</t>
+  </si>
+  <si>
     <t>DKR</t>
   </si>
   <si>
     <t>NDJ</t>
   </si>
   <si>
+    <t>FCO</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>LUN</t>
+  </si>
+  <si>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t>BGW</t>
+  </si>
+  <si>
+    <t>RUH</t>
+  </si>
+  <si>
+    <t>JNB</t>
+  </si>
+  <si>
+    <t>SYD</t>
+  </si>
+  <si>
+    <t>NQZ</t>
+  </si>
+  <si>
     <t>ABJ</t>
   </si>
   <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t>MCT</t>
+  </si>
+  <si>
     <t>BOG</t>
   </si>
   <si>
-    <t>HRE</t>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>MGQ</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>MNL</t>
+  </si>
+  <si>
+    <t>GYD</t>
   </si>
   <si>
     <t>LLW</t>
   </si>
   <si>
-    <t>SCL</t>
+    <t>TAS</t>
   </si>
   <si>
     <t>COO</t>
   </si>
   <si>
+    <t>BKK</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>ATH</t>
+  </si>
+  <si>
     <t>NKC</t>
   </si>
   <si>
     <t>BZV</t>
   </si>
   <si>
+    <t>KWI</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>DOH</t>
+  </si>
+  <si>
+    <t>ARN</t>
+  </si>
+  <si>
     <t>LFW</t>
   </si>
   <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>KTM</t>
+  </si>
+  <si>
+    <t>HEL</t>
+  </si>
+  <si>
     <t>BJL</t>
   </si>
   <si>
+    <t>ISB</t>
+  </si>
+  <si>
+    <t>SOF</t>
+  </si>
+  <si>
+    <t>CMB</t>
+  </si>
+  <si>
+    <t>KGL</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
     <t>WDH</t>
   </si>
   <si>
+    <t>LIS</t>
+  </si>
+  <si>
     <t>CKY</t>
   </si>
   <si>
@@ -118,24 +277,27 @@
     <t>LBV</t>
   </si>
   <si>
+    <t>OSL</t>
+  </si>
+  <si>
     <t>SSG</t>
   </si>
   <si>
-    <t>IEV</t>
-  </si>
-  <si>
     <t>AEP</t>
   </si>
   <si>
     <t>BJM</t>
   </si>
   <si>
-    <t>MPM</t>
-  </si>
-  <si>
     <t>ROR</t>
   </si>
   <si>
+    <t>BEY</t>
+  </si>
+  <si>
+    <t>JUB</t>
+  </si>
+  <si>
     <t>YAO</t>
   </si>
   <si>
@@ -145,6 +307,12 @@
     <t>TIP</t>
   </si>
   <si>
+    <t>WAW</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
     <t>TLL</t>
   </si>
   <si>
@@ -157,6 +325,9 @@
     <t>MEX</t>
   </si>
   <si>
+    <t>DUB</t>
+  </si>
+  <si>
     <t>NIM</t>
   </si>
   <si>
@@ -172,21 +343,36 @@
     <t>ULN</t>
   </si>
   <si>
+    <t>SEZ</t>
+  </si>
+  <si>
+    <t>DYU</t>
+  </si>
+  <si>
     <t>BGF</t>
   </si>
   <si>
-    <t>POM</t>
-  </si>
-  <si>
     <t>UIO</t>
   </si>
   <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
     <t>SDQ</t>
   </si>
   <si>
+    <t>PNH</t>
+  </si>
+  <si>
     <t>HAV</t>
   </si>
   <si>
+    <t>OTP</t>
+  </si>
+  <si>
     <t>PBH</t>
   </si>
   <si>
@@ -205,39 +391,60 @@
     <t>PTY</t>
   </si>
   <si>
-    <t>GUA</t>
-  </si>
-  <si>
     <t>KEF</t>
   </si>
   <si>
+    <t>EVN</t>
+  </si>
+  <si>
     <t>BWN</t>
   </si>
   <si>
     <t>BGI</t>
   </si>
   <si>
+    <t>BUD</t>
+  </si>
+  <si>
     <t>TBU</t>
   </si>
   <si>
+    <t>JIB</t>
+  </si>
+  <si>
     <t>NAS</t>
   </si>
   <si>
+    <t>THR</t>
+  </si>
+  <si>
     <t>CXI</t>
   </si>
   <si>
+    <t>MLE</t>
+  </si>
+  <si>
     <t>DIL</t>
   </si>
   <si>
-    <t>RMI</t>
+    <t>PRG</t>
   </si>
   <si>
     <t>MTS</t>
   </si>
   <si>
+    <t>TBS</t>
+  </si>
+  <si>
     <t>BZE</t>
   </si>
   <si>
+    <t>MRU</t>
+  </si>
+  <si>
+    <t>LJU</t>
+  </si>
+  <si>
     <t>HIR</t>
   </si>
   <si>
@@ -247,6 +454,15 @@
     <t>APW</t>
   </si>
   <si>
+    <t>ZRH</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>MSQ</t>
+  </si>
+  <si>
     <t>MSU</t>
   </si>
   <si>
@@ -259,18 +475,30 @@
     <t>LPB</t>
   </si>
   <si>
+    <t>SJJ</t>
+  </si>
+  <si>
     <t>ECN</t>
   </si>
   <si>
     <t>KRT</t>
   </si>
   <si>
+    <t>RIX</t>
+  </si>
+  <si>
+    <t>BEG</t>
+  </si>
+  <si>
     <t>SJO</t>
   </si>
   <si>
     <t>BXO</t>
   </si>
   <si>
+    <t>TIA</t>
+  </si>
+  <si>
     <t>PAP</t>
   </si>
   <si>
@@ -301,7 +529,7 @@
     <t>CCS</t>
   </si>
   <si>
-    <t>PBM</t>
+    <t>ALG</t>
   </si>
   <si>
     <t>DOM</t>
@@ -310,9 +538,15 @@
     <t>ZSA</t>
   </si>
   <si>
+    <t>NCE</t>
+  </si>
+  <si>
     <t>SKP</t>
   </si>
   <si>
+    <t>ZAG</t>
+  </si>
+  <si>
     <t>RAI</t>
   </si>
   <si>
@@ -343,7 +577,7 @@
     <t>LEU</t>
   </si>
   <si>
-    <t>KIV</t>
+    <t>ASM</t>
   </si>
   <si>
     <t>MGA</t>
@@ -352,57 +586,216 @@
     <t>FNJ</t>
   </si>
   <si>
+    <t>OMAA</t>
+  </si>
+  <si>
+    <t>SBGR</t>
+  </si>
+  <si>
+    <t>ZBAA</t>
+  </si>
+  <si>
     <t>DNMM</t>
   </si>
   <si>
+    <t>WIII</t>
+  </si>
+  <si>
+    <t>RJTT</t>
+  </si>
+  <si>
+    <t>LTFM</t>
+  </si>
+  <si>
+    <t>VIDP</t>
+  </si>
+  <si>
     <t>GMME</t>
   </si>
   <si>
+    <t>LFPG</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>HKJK</t>
+  </si>
+  <si>
+    <t>HTDA</t>
+  </si>
+  <si>
     <t>CYOW</t>
   </si>
   <si>
+    <t>LLBG</t>
+  </si>
+  <si>
+    <t>WMKK</t>
+  </si>
+  <si>
+    <t>EGLL</t>
+  </si>
+  <si>
+    <t>RKSI</t>
+  </si>
+  <si>
+    <t>DGAA</t>
+  </si>
+  <si>
+    <t>HUEN</t>
+  </si>
+  <si>
     <t>FZAA</t>
   </si>
   <si>
+    <t>UUEE</t>
+  </si>
+  <si>
+    <t>HECA</t>
+  </si>
+  <si>
     <t>GOOY</t>
   </si>
   <si>
     <t>FTTJ</t>
   </si>
   <si>
+    <t>LIRF</t>
+  </si>
+  <si>
+    <t>EDDB</t>
+  </si>
+  <si>
+    <t>FLLS</t>
+  </si>
+  <si>
+    <t>OJAI</t>
+  </si>
+  <si>
+    <t>ORBI</t>
+  </si>
+  <si>
+    <t>OERK</t>
+  </si>
+  <si>
+    <t>FAOR</t>
+  </si>
+  <si>
+    <t>YSSY</t>
+  </si>
+  <si>
+    <t>UACC</t>
+  </si>
+  <si>
     <t>DIAP</t>
   </si>
   <si>
+    <t>EBBR</t>
+  </si>
+  <si>
+    <t>OOMS</t>
+  </si>
+  <si>
     <t>SKBO</t>
   </si>
   <si>
-    <t>FVHA</t>
+    <t>VVNB</t>
+  </si>
+  <si>
+    <t>HCMM</t>
+  </si>
+  <si>
+    <t>WSSS</t>
+  </si>
+  <si>
+    <t>RPLL</t>
+  </si>
+  <si>
+    <t>UBBB</t>
   </si>
   <si>
     <t>FWKI</t>
   </si>
   <si>
-    <t>SCEL</t>
+    <t>UTTT</t>
   </si>
   <si>
     <t>DBBB</t>
   </si>
   <si>
+    <t>VTBS</t>
+  </si>
+  <si>
+    <t>FNLU</t>
+  </si>
+  <si>
+    <t>LGAV</t>
+  </si>
+  <si>
     <t>GQNO</t>
   </si>
   <si>
     <t>FCBB</t>
   </si>
   <si>
+    <t>OKBK</t>
+  </si>
+  <si>
+    <t>HAAB</t>
+  </si>
+  <si>
+    <t>EKCH</t>
+  </si>
+  <si>
+    <t>OTHH</t>
+  </si>
+  <si>
+    <t>ESSA</t>
+  </si>
+  <si>
     <t>DXXX</t>
   </si>
   <si>
+    <t>LEMD</t>
+  </si>
+  <si>
+    <t>VNKT</t>
+  </si>
+  <si>
+    <t>EFHK</t>
+  </si>
+  <si>
     <t>GBYD</t>
   </si>
   <si>
+    <t>OPIS</t>
+  </si>
+  <si>
+    <t>LBSF</t>
+  </si>
+  <si>
+    <t>VCBI</t>
+  </si>
+  <si>
+    <t>HRYR</t>
+  </si>
+  <si>
+    <t>DTTA</t>
+  </si>
+  <si>
+    <t>OBBI</t>
+  </si>
+  <si>
+    <t>EHAM</t>
+  </si>
+  <si>
     <t>FYWH</t>
   </si>
   <si>
+    <t>LPPT</t>
+  </si>
+  <si>
     <t>GUCY</t>
   </si>
   <si>
@@ -427,24 +820,27 @@
     <t>FOOL</t>
   </si>
   <si>
+    <t>ENGM</t>
+  </si>
+  <si>
     <t>FGSL</t>
   </si>
   <si>
-    <t>UKKK</t>
-  </si>
-  <si>
     <t>SABE</t>
   </si>
   <si>
     <t>HBBA</t>
   </si>
   <si>
-    <t>FQMA</t>
-  </si>
-  <si>
     <t>PTRO</t>
   </si>
   <si>
+    <t>OLBA</t>
+  </si>
+  <si>
+    <t>HJJJ</t>
+  </si>
+  <si>
     <t>FKKY</t>
   </si>
   <si>
@@ -454,6 +850,12 @@
     <t>HLLT</t>
   </si>
   <si>
+    <t>EPWA</t>
+  </si>
+  <si>
+    <t>VGHS</t>
+  </si>
+  <si>
     <t>EETN</t>
   </si>
   <si>
@@ -466,6 +868,9 @@
     <t>MMMX</t>
   </si>
   <si>
+    <t>EIDW</t>
+  </si>
+  <si>
     <t>DRRN</t>
   </si>
   <si>
@@ -481,21 +886,36 @@
     <t>ZMUB</t>
   </si>
   <si>
+    <t>FSIA</t>
+  </si>
+  <si>
+    <t>UTDD</t>
+  </si>
+  <si>
     <t>FEFF</t>
   </si>
   <si>
-    <t>AYPY</t>
-  </si>
-  <si>
     <t>SEQM</t>
   </si>
   <si>
+    <t>LOWW</t>
+  </si>
+  <si>
+    <t>ELLX</t>
+  </si>
+  <si>
     <t>MDSD</t>
   </si>
   <si>
+    <t>VDPP</t>
+  </si>
+  <si>
     <t>MUHA</t>
   </si>
   <si>
+    <t>LROP</t>
+  </si>
+  <si>
     <t>VQPR</t>
   </si>
   <si>
@@ -514,39 +934,60 @@
     <t>MPTO</t>
   </si>
   <si>
-    <t>MGGT</t>
-  </si>
-  <si>
     <t>BIKF</t>
   </si>
   <si>
+    <t>UDYZ</t>
+  </si>
+  <si>
     <t>WBSB</t>
   </si>
   <si>
     <t>TBPB</t>
   </si>
   <si>
+    <t>LHBP</t>
+  </si>
+  <si>
     <t>NFTF</t>
   </si>
   <si>
+    <t>HDAM</t>
+  </si>
+  <si>
     <t>MYNN</t>
   </si>
   <si>
+    <t>OIII</t>
+  </si>
+  <si>
     <t>PLCH</t>
   </si>
   <si>
+    <t>VRMM</t>
+  </si>
+  <si>
     <t>WPDL</t>
   </si>
   <si>
-    <t>LIPR</t>
+    <t>LKPR</t>
   </si>
   <si>
     <t>FDMS</t>
   </si>
   <si>
+    <t>UGTB</t>
+  </si>
+  <si>
     <t>MZBZ</t>
   </si>
   <si>
+    <t>FIMP</t>
+  </si>
+  <si>
+    <t>LJLJ</t>
+  </si>
+  <si>
     <t>AGGH</t>
   </si>
   <si>
@@ -556,6 +997,15 @@
     <t>NSFA</t>
   </si>
   <si>
+    <t>LSZH</t>
+  </si>
+  <si>
+    <t>LZIB</t>
+  </si>
+  <si>
+    <t>UMMS</t>
+  </si>
+  <si>
     <t>FXMM</t>
   </si>
   <si>
@@ -568,18 +1018,30 @@
     <t>SLLP</t>
   </si>
   <si>
+    <t>LQSA</t>
+  </si>
+  <si>
     <t>LCEN</t>
   </si>
   <si>
     <t>HSSK</t>
   </si>
   <si>
+    <t>EVRA</t>
+  </si>
+  <si>
+    <t>LYBE</t>
+  </si>
+  <si>
     <t>MROC</t>
   </si>
   <si>
     <t>LSZC</t>
   </si>
   <si>
+    <t>LATI</t>
+  </si>
+  <si>
     <t>MTPP</t>
   </si>
   <si>
@@ -610,7 +1072,7 @@
     <t>SVMI</t>
   </si>
   <si>
-    <t>SMJP</t>
+    <t>DAAG</t>
   </si>
   <si>
     <t>TDPD</t>
@@ -619,9 +1081,15 @@
     <t>MYSM</t>
   </si>
   <si>
+    <t>LFMN</t>
+  </si>
+  <si>
     <t>LWSK</t>
   </si>
   <si>
+    <t>LDZA</t>
+  </si>
+  <si>
     <t>GVNP</t>
   </si>
   <si>
@@ -652,7 +1120,7 @@
     <t>LESU</t>
   </si>
   <si>
-    <t>LUKK</t>
+    <t>HHAS</t>
   </si>
   <si>
     <t>MNMG</t>
@@ -661,54 +1129,213 @@
     <t>ZKPY</t>
   </si>
   <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
     <t>NG</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
     <t>SN</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
-    <t>ZW</t>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>AZ</t>
   </si>
   <si>
     <t>MW</t>
   </si>
   <si>
-    <t>CL</t>
+    <t>UZ</t>
   </si>
   <si>
     <t>BJ</t>
   </si>
   <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
     <t>MR</t>
   </si>
   <si>
     <t>CG</t>
   </si>
   <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>TG</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
     <t>GM</t>
   </si>
   <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
     <t>GN</t>
   </si>
   <si>
@@ -736,24 +1363,27 @@
     <t>GA</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>GQ</t>
   </si>
   <si>
-    <t>UA</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
     <t>BI</t>
   </si>
   <si>
-    <t>MZ</t>
-  </si>
-  <si>
     <t>PW</t>
   </si>
   <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
     <t>CM</t>
   </si>
   <si>
@@ -763,6 +1393,12 @@
     <t>LY</t>
   </si>
   <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
     <t>EE</t>
   </si>
   <si>
@@ -775,6 +1411,9 @@
     <t>MX</t>
   </si>
   <si>
+    <t>IE</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
@@ -790,21 +1429,36 @@
     <t>MN</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
     <t>CF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>EC</t>
   </si>
   <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
     <t>CU</t>
   </si>
   <si>
+    <t>RO</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
@@ -823,39 +1477,60 @@
     <t>PA</t>
   </si>
   <si>
-    <t>GT</t>
-  </si>
-  <si>
     <t>IS</t>
   </si>
   <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t>BN</t>
   </si>
   <si>
     <t>BB</t>
   </si>
   <si>
+    <t>HU</t>
+  </si>
+  <si>
     <t>TO</t>
   </si>
   <si>
+    <t>DJ</t>
+  </si>
+  <si>
     <t>BS</t>
   </si>
   <si>
+    <t>IR</t>
+  </si>
+  <si>
     <t>KI</t>
   </si>
   <si>
+    <t>MV</t>
+  </si>
+  <si>
     <t>TL</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>CZ</t>
   </si>
   <si>
     <t>SZ</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
     <t>BZ</t>
   </si>
   <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
     <t>SB</t>
   </si>
   <si>
@@ -865,6 +1540,12 @@
     <t>WS</t>
   </si>
   <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
     <t>LS</t>
   </si>
   <si>
@@ -877,18 +1558,24 @@
     <t>BO</t>
   </si>
   <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>CY</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
     <t>CR</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>HT</t>
   </si>
   <si>
@@ -919,7 +1606,7 @@
     <t>VE</t>
   </si>
   <si>
-    <t>SR</t>
+    <t>DZ</t>
   </si>
   <si>
     <t>DM</t>
@@ -928,6 +1615,9 @@
     <t>MK</t>
   </si>
   <si>
+    <t>HR</t>
+  </si>
+  <si>
     <t>CV</t>
   </si>
   <si>
@@ -955,10 +1645,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>MD</t>
+    <t>ER</t>
   </si>
   <si>
     <t>NI</t>
@@ -967,45 +1654,153 @@
     <t>KP</t>
   </si>
   <si>
+    <t>Abu Dhabi International Airport</t>
+  </si>
+  <si>
+    <t>Sao Paulo/Guarulhos International Airport</t>
+  </si>
+  <si>
+    <t>Beijing Capital International Airport</t>
+  </si>
+  <si>
     <t>Murtala Muhammed International Airport</t>
   </si>
   <si>
+    <t>Soekarno–Hatta International Airport</t>
+  </si>
+  <si>
+    <t>Haneda Airport</t>
+  </si>
+  <si>
+    <t>Istanbul Ataturk Airport</t>
+  </si>
+  <si>
+    <t>Indira Gandhi International Airport</t>
+  </si>
+  <si>
     <t>Rabat-Sale Airport</t>
   </si>
   <si>
+    <t>Paris Charles de Gaulle Airport</t>
+  </si>
+  <si>
+    <t>John F. Kennedy International Airport</t>
+  </si>
+  <si>
+    <t>Jomo Kenyatta International Airport</t>
+  </si>
+  <si>
+    <t>Julius Nyerere International Airport</t>
+  </si>
+  <si>
     <t>Ottawa Macdonald-Cartier International Airport</t>
   </si>
   <si>
+    <t>Ben Gurion Airport</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur International Airport</t>
+  </si>
+  <si>
+    <t>Heathrow Airport</t>
+  </si>
+  <si>
+    <t>Incheon International Airport</t>
+  </si>
+  <si>
+    <t>Kotoka International Airport</t>
+  </si>
+  <si>
+    <t>Entebbe International Airport</t>
+  </si>
+  <si>
     <t>N'djili Airport</t>
   </si>
   <si>
+    <t>Sheremetyevo Alexander S. Pushkin International Airport</t>
+  </si>
+  <si>
+    <t>Cairo International Airport</t>
+  </si>
+  <si>
     <t>Leopold Sedar Senghor International Airport</t>
   </si>
   <si>
     <t>N'Djamena International Airport</t>
   </si>
   <si>
+    <t>Rome–Fiumicino International Airport</t>
+  </si>
+  <si>
+    <t>Berlin Brandenburg Airport</t>
+  </si>
+  <si>
+    <t>Kenneth Kaunda International Airport</t>
+  </si>
+  <si>
+    <t>Queen Alia International Airport</t>
+  </si>
+  <si>
+    <t>Baghdad International Airport</t>
+  </si>
+  <si>
+    <t>King Khalid International Airport</t>
+  </si>
+  <si>
+    <t>O. R. Tambo International Airport</t>
+  </si>
+  <si>
+    <t>Sydney Airport (Kingsford Smith Airport)</t>
+  </si>
+  <si>
+    <t>Nursultan Nazarbayev International Airport</t>
+  </si>
+  <si>
     <t>Port Bouet Airport (Felix Houphouet Boigny Int'l)</t>
   </si>
   <si>
+    <t>Brussels Airport (Zaventem Airport)</t>
+  </si>
+  <si>
+    <t>Muscat International Airport</t>
+  </si>
+  <si>
     <t>El Dorado International Airport</t>
   </si>
   <si>
-    <t>Robert Gabriel Mugabe International Airport</t>
+    <t>Noi Bai International Airport</t>
+  </si>
+  <si>
+    <t>Aden Adde International Airport</t>
+  </si>
+  <si>
+    <t>Singapore Changi Airport</t>
+  </si>
+  <si>
+    <t>Ninoy Aquino International Airport / Villamor Air Base</t>
+  </si>
+  <si>
+    <t>Heydar Aliyev International Airport</t>
   </si>
   <si>
     <t>Lilongwe International Airport (Kamuzu Int'l)</t>
   </si>
   <si>
-    <t>Comodoro Arturo Merino Benitez International Airport</t>
-  </si>
-  <si>
-    <t>Arturo Merino Benítez International Airport</t>
+    <t>Tashkent International Airport</t>
   </si>
   <si>
     <t>Cadjehoun Airport</t>
   </si>
   <si>
+    <t>Suvarnabhumi Airport</t>
+  </si>
+  <si>
+    <t>Quatro de Fevereiro Airport</t>
+  </si>
+  <si>
+    <t>Athens International Airport (Eleftherios Venizelos Airport)</t>
+  </si>
+  <si>
     <t>Nouakchott-Oumtounsy International Airport</t>
   </si>
   <si>
@@ -1015,15 +1810,69 @@
     <t>Maya–Maya Airport</t>
   </si>
   <si>
+    <t>Kuwait International Airport</t>
+  </si>
+  <si>
+    <t>Addis Ababa Bole International Airport</t>
+  </si>
+  <si>
+    <t>Bole International Airport</t>
+  </si>
+  <si>
+    <t>Copenhagen Airport</t>
+  </si>
+  <si>
+    <t>Hamad International Airport</t>
+  </si>
+  <si>
+    <t>Stockholm Arlanda Airport</t>
+  </si>
+  <si>
     <t>Lome-Tokoin Airport (Gnassingbe Eyadema Int'l)</t>
   </si>
   <si>
+    <t>Adolfo Suarez Madrid-Barajas Airport</t>
+  </si>
+  <si>
+    <t>Tribhuvan International Airport</t>
+  </si>
+  <si>
+    <t>Helsinki Airport (Helsinki-Vantaa Airport)</t>
+  </si>
+  <si>
     <t>Banjul International Airport</t>
   </si>
   <si>
+    <t>Islamabad International Airport</t>
+  </si>
+  <si>
+    <t>Sofia Airport</t>
+  </si>
+  <si>
+    <t>Bandaranaike International Airport</t>
+  </si>
+  <si>
+    <t>Kigali International Airport (Kanombe Airport)</t>
+  </si>
+  <si>
+    <t>Tunis-Carthage International Airport</t>
+  </si>
+  <si>
+    <t>Tunis–Carthage International Airport</t>
+  </si>
+  <si>
+    <t>Bahrain International Airport</t>
+  </si>
+  <si>
+    <t>Amsterdam Airport Schiphol</t>
+  </si>
+  <si>
     <t>Hosea Kutako International Airport</t>
   </si>
   <si>
+    <t>Lisbon Portela Airport</t>
+  </si>
+  <si>
     <t>Conakry International Airport (Gbessia Int'l Airport)</t>
   </si>
   <si>
@@ -1054,24 +1903,27 @@
     <t>Libreville International Airport</t>
   </si>
   <si>
+    <t>Oslo Airport</t>
+  </si>
+  <si>
     <t>Malabo International Airport (Saint Isabel Airport)</t>
   </si>
   <si>
-    <t>Kyiv International Airport (Zhuliany)</t>
-  </si>
-  <si>
     <t>Aeroparque Internacional Jorge Newbery</t>
   </si>
   <si>
     <t>Bujumbura International Airport</t>
   </si>
   <si>
-    <t>Maputo International Airport</t>
-  </si>
-  <si>
     <t>Roman Tmetuchl International Airport</t>
   </si>
   <si>
+    <t>Beirut-Rafic Hariri International Airport / Beirut Air Base</t>
+  </si>
+  <si>
+    <t>Juba International Airport</t>
+  </si>
+  <si>
     <t>Yaounde Airport</t>
   </si>
   <si>
@@ -1084,6 +1936,12 @@
     <t>Tripoli International Airport</t>
   </si>
   <si>
+    <t>Warsaw Chopin Airport</t>
+  </si>
+  <si>
+    <t>Hazrat Shahjalal International Airport</t>
+  </si>
+  <si>
     <t>Tallinn Airport (Lennart Meri Tallinn Airport)</t>
   </si>
   <si>
@@ -1099,6 +1957,9 @@
     <t>Mexico City International Airport</t>
   </si>
   <si>
+    <t>Dublin Airport</t>
+  </si>
+  <si>
     <t>Diori Hamani International Airport</t>
   </si>
   <si>
@@ -1114,21 +1975,36 @@
     <t>Chinggis Khaan International Airport</t>
   </si>
   <si>
+    <t>Seychelles International Airport</t>
+  </si>
+  <si>
+    <t>Dushanbe International Airport</t>
+  </si>
+  <si>
     <t>Bangui M'Poko International Airport</t>
   </si>
   <si>
-    <t>Jacksons International Airport</t>
-  </si>
-  <si>
     <t>Mariscal Sucre International Airport</t>
   </si>
   <si>
+    <t>Vienna International Airport</t>
+  </si>
+  <si>
+    <t>Luxembourg Findel Airport</t>
+  </si>
+  <si>
     <t>Las Americas International Airport</t>
   </si>
   <si>
+    <t>Phnom Penh International Airport</t>
+  </si>
+  <si>
     <t>Jose Marti International Airport</t>
   </si>
   <si>
+    <t>Bucharest Henri Coandă International Airport</t>
+  </si>
+  <si>
     <t>Paro International Airport</t>
   </si>
   <si>
@@ -1147,39 +2023,60 @@
     <t>Tocumen International Airport</t>
   </si>
   <si>
-    <t>La Aurora International Airport</t>
-  </si>
-  <si>
     <t>Keflavík International Airport</t>
   </si>
   <si>
+    <t>Zvartnots International Airport</t>
+  </si>
+  <si>
     <t>Brunei International Airport</t>
   </si>
   <si>
     <t>Grantley Adams International Airport</t>
   </si>
   <si>
+    <t>Budapest Ferenc Liszt International Airport</t>
+  </si>
+  <si>
     <t>Fua'amotu International Airport</t>
   </si>
   <si>
+    <t>Djibouti-Ambouli International Airport</t>
+  </si>
+  <si>
     <t>Lynden Pindling International Airport</t>
   </si>
   <si>
+    <t>Mehrabad International Airport</t>
+  </si>
+  <si>
     <t>Cassidy International Airport</t>
   </si>
   <si>
+    <t>Velana International Airport</t>
+  </si>
+  <si>
     <t>Presidente Nicolau Lobato International Airport</t>
   </si>
   <si>
-    <t>Federico Fellini International Airport</t>
+    <t>Vaclav Havel Airport Prague</t>
   </si>
   <si>
     <t>Matsapha Airport</t>
   </si>
   <si>
+    <t>Tbilisi International Airport</t>
+  </si>
+  <si>
     <t>Philip S. W. Goldson International Airport</t>
   </si>
   <si>
+    <t>Sir Seewoosagur Ramgoolam International Airport</t>
+  </si>
+  <si>
+    <t>Ljubljana Joze Pucnik Airport (Brnik Airport)</t>
+  </si>
+  <si>
     <t>Honiara International Airport</t>
   </si>
   <si>
@@ -1189,6 +2086,15 @@
     <t>Faleolo International Airport</t>
   </si>
   <si>
+    <t>Zurich Airport</t>
+  </si>
+  <si>
+    <t>M. R. Stefanik Airport</t>
+  </si>
+  <si>
+    <t>Minsk National Airport</t>
+  </si>
+  <si>
     <t>Moshoeshoe I International Airport</t>
   </si>
   <si>
@@ -1204,18 +2110,30 @@
     <t>El Alto International Airport</t>
   </si>
   <si>
+    <t>Sarajevo International Airport</t>
+  </si>
+  <si>
     <t>Ercan International Airport</t>
   </si>
   <si>
     <t>Khartoum International Airport</t>
   </si>
   <si>
+    <t>Riga International Airport</t>
+  </si>
+  <si>
+    <t>Belgrade Nikola Tesla Airport</t>
+  </si>
+  <si>
     <t>Juan Santamaria International Airport</t>
   </si>
   <si>
     <t>Buochs Airport</t>
   </si>
   <si>
+    <t>Tirana International Airport</t>
+  </si>
+  <si>
     <t>Toussaint L'Ouverture International Airport</t>
   </si>
   <si>
@@ -1249,7 +2167,7 @@
     <t>Simon Bolivar International Airport</t>
   </si>
   <si>
-    <t>Johan Adolf Pengel International Airport</t>
+    <t>Houari Boumediene Airport</t>
   </si>
   <si>
     <t>Douglas-Charles Airport</t>
@@ -1258,9 +2176,15 @@
     <t>San Salvador Airport (Cockburn Town Airport)</t>
   </si>
   <si>
+    <t>Nice Cote d'Azur Airport</t>
+  </si>
+  <si>
     <t>Skopje Alexander the Great Airport</t>
   </si>
   <si>
+    <t>Zagreb Airport</t>
+  </si>
+  <si>
     <t>Nelson Mandela International Airport</t>
   </si>
   <si>
@@ -1294,7 +2218,7 @@
     <t>Andorra-La Seu Airport</t>
   </si>
   <si>
-    <t>Chisinau International Airport</t>
+    <t>Asmara International Airport</t>
   </si>
   <si>
     <t>Augusto C. Sandino International Airport</t>
@@ -1658,7 +2582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,25 +2622,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="C2">
-        <v>1411</v>
+        <v>4557</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>546</v>
       </c>
       <c r="F2">
-        <v>6.57737</v>
+        <v>24.433</v>
       </c>
       <c r="G2">
-        <v>3.32116</v>
+        <v>54.6511</v>
       </c>
       <c r="H2">
-        <v>5899.623220258864</v>
+        <v>115.9503975433683</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -1727,25 +2651,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="C3">
-        <v>823</v>
+        <v>3643</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>547</v>
       </c>
       <c r="F3">
-        <v>34.0515</v>
+        <v>-23.4262</v>
       </c>
       <c r="G3">
-        <v>-6.75152</v>
+        <v>-46.48</v>
       </c>
       <c r="H3">
-        <v>6003.076078434362</v>
+        <v>12218.28009329243</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -1756,25 +2680,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C4">
-        <v>1830</v>
+        <v>6672</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>548</v>
       </c>
       <c r="F4">
-        <v>45.3225</v>
+        <v>40.0725</v>
       </c>
       <c r="G4">
-        <v>-75.6692</v>
+        <v>116.598</v>
       </c>
       <c r="H4">
-        <v>10756.57977979553</v>
+        <v>5856.254969396917</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1785,25 +2709,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C5">
-        <v>590</v>
+        <v>1549</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>374</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>549</v>
       </c>
       <c r="F5">
-        <v>-4.38575</v>
+        <v>6.57737</v>
       </c>
       <c r="G5">
-        <v>15.4446</v>
+        <v>3.32116</v>
       </c>
       <c r="H5">
-        <v>5418.061563758994</v>
+        <v>5899.623220258864</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1814,25 +2738,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C6">
-        <v>560</v>
+        <v>1615</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>550</v>
       </c>
       <c r="F6">
-        <v>14.7397</v>
+        <v>-6.12556</v>
       </c>
       <c r="G6">
-        <v>-17.4902</v>
+        <v>106.656</v>
       </c>
       <c r="H6">
-        <v>7628.024226565631</v>
+        <v>6543.695620028412</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1843,25 +2767,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C7">
-        <v>554</v>
+        <v>2306</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>551</v>
       </c>
       <c r="F7">
-        <v>12.1337</v>
+        <v>35.5533</v>
       </c>
       <c r="G7">
-        <v>15.034</v>
+        <v>139.781</v>
       </c>
       <c r="H7">
-        <v>4474.314078708201</v>
+        <v>7949.365153523985</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1872,25 +2796,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C8">
-        <v>401</v>
+        <v>1311</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>552</v>
       </c>
       <c r="F8">
-        <v>5.26139</v>
+        <v>41.2753</v>
       </c>
       <c r="G8">
-        <v>-3.92629</v>
+        <v>28.7519</v>
       </c>
       <c r="H8">
-        <v>6683.275571276795</v>
+        <v>3029.889751675834</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1901,25 +2825,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="C9">
-        <v>932</v>
+        <v>1949</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>553</v>
       </c>
       <c r="F9">
-        <v>4.70159</v>
+        <v>28.5665</v>
       </c>
       <c r="G9">
-        <v>-74.1469</v>
+        <v>77.1031</v>
       </c>
       <c r="H9">
-        <v>13645.13372672559</v>
+        <v>2187.213855509325</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1930,25 +2854,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C10">
-        <v>337</v>
+        <v>861</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>554</v>
       </c>
       <c r="F10">
-        <v>-17.9318</v>
+        <v>34.0515</v>
       </c>
       <c r="G10">
-        <v>31.0928</v>
+        <v>-6.75152</v>
       </c>
       <c r="H10">
-        <v>5453.78412495857</v>
+        <v>6003.076078434362</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1959,25 +2883,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="C11">
-        <v>305</v>
+        <v>1614</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>555</v>
       </c>
       <c r="F11">
-        <v>-13.7894</v>
+        <v>49.0097</v>
       </c>
       <c r="G11">
-        <v>33.781</v>
+        <v>2.54778</v>
       </c>
       <c r="H11">
-        <v>4913.290218469429</v>
+        <v>5245.251801383757</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1988,25 +2912,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C12">
-        <v>742</v>
+        <v>8220</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>381</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>556</v>
       </c>
       <c r="F12">
-        <v>-33.393</v>
+        <v>40.6397</v>
       </c>
       <c r="G12">
-        <v>-70.78579999999999</v>
+        <v>-73.77889999999999</v>
       </c>
       <c r="H12">
-        <v>14776.56826260734</v>
+        <v>11021.83931136303</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -2014,28 +2938,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="C13">
-        <v>742</v>
+        <v>798</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>557</v>
       </c>
       <c r="F13">
-        <v>-33.3928</v>
+        <v>-1.31924</v>
       </c>
       <c r="G13">
-        <v>-70.7856</v>
+        <v>36.9278</v>
       </c>
       <c r="H13">
-        <v>14776.54789893975</v>
+        <v>3548.47580472309</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2043,28 +2967,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C14">
-        <v>297</v>
+        <v>785</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>383</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>558</v>
       </c>
       <c r="F14">
-        <v>6.35723</v>
+        <v>-6.87811</v>
       </c>
       <c r="G14">
-        <v>2.38435</v>
+        <v>39.2026</v>
       </c>
       <c r="H14">
-        <v>6003.1597829684</v>
+        <v>3962.363941158238</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2072,28 +2996,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="C15">
-        <v>285</v>
+        <v>1368</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>384</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>559</v>
       </c>
       <c r="F15">
-        <v>18.31</v>
+        <v>45.3225</v>
       </c>
       <c r="G15">
-        <v>-15.9697</v>
+        <v>-75.6692</v>
       </c>
       <c r="H15">
-        <v>7335.309635228327</v>
+        <v>10756.57977979553</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -2101,28 +3025,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="C16">
-        <v>284</v>
+        <v>872</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>385</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>560</v>
       </c>
       <c r="F16">
-        <v>-4.2517</v>
+        <v>32.0114</v>
       </c>
       <c r="G16">
-        <v>15.253</v>
+        <v>34.8867</v>
       </c>
       <c r="H16">
-        <v>5425.166329914303</v>
+        <v>2133.488294911567</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -2130,28 +3054,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C17">
-        <v>284</v>
+        <v>819</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>386</v>
       </c>
       <c r="E17" t="s">
-        <v>332</v>
+        <v>561</v>
       </c>
       <c r="F17">
-        <v>-4.25167</v>
+        <v>2.74558</v>
       </c>
       <c r="G17">
-        <v>15.2531</v>
+        <v>101.71</v>
       </c>
       <c r="H17">
-        <v>5425.155623510618</v>
+        <v>5549.655176427877</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -2159,28 +3083,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C18">
-        <v>250</v>
+        <v>1602</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>387</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>562</v>
       </c>
       <c r="F18">
-        <v>6.16561</v>
+        <v>51.4775</v>
       </c>
       <c r="G18">
-        <v>1.25451</v>
+        <v>-0.461389</v>
       </c>
       <c r="H18">
-        <v>6124.465545044574</v>
+        <v>5504.809848245329</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2188,28 +3112,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="C19">
-        <v>238</v>
+        <v>1179</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>388</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>563</v>
       </c>
       <c r="F19">
-        <v>13.338</v>
+        <v>37.4633</v>
       </c>
       <c r="G19">
-        <v>-16.6522</v>
+        <v>126.44</v>
       </c>
       <c r="H19">
-        <v>7601.941405592859</v>
+        <v>6740.321375341186</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2217,25 +3141,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="C20">
-        <v>212</v>
+        <v>640</v>
+      </c>
+      <c r="D20" t="s">
+        <v>389</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>564</v>
       </c>
       <c r="F20">
-        <v>-22.4799</v>
+        <v>5.60519</v>
       </c>
       <c r="G20">
-        <v>17.4709</v>
+        <v>-0.166786</v>
       </c>
       <c r="H20">
-        <v>6680.44282074392</v>
+        <v>6292.961751932336</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2243,28 +3170,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="C21">
-        <v>208</v>
+        <v>619</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>565</v>
       </c>
       <c r="F21">
-        <v>9.576890000000001</v>
+        <v>0.042386</v>
       </c>
       <c r="G21">
-        <v>-13.612</v>
+        <v>32.4435</v>
       </c>
       <c r="H21">
-        <v>7456.904644333535</v>
+        <v>3723.069355778457</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2272,28 +3199,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="C22">
-        <v>208</v>
+        <v>609</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>391</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="F22">
-        <v>9.576890000000001</v>
+        <v>-4.38575</v>
       </c>
       <c r="G22">
-        <v>-13.612</v>
+        <v>15.4446</v>
       </c>
       <c r="H22">
-        <v>7456.904644333535</v>
+        <v>5418.061563758994</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2301,28 +3228,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="C23">
-        <v>206</v>
+        <v>1246</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="E23" t="s">
-        <v>338</v>
+        <v>567</v>
       </c>
       <c r="F23">
-        <v>12.3532</v>
+        <v>55.9728</v>
       </c>
       <c r="G23">
-        <v>-1.51242</v>
+        <v>37.4147</v>
       </c>
       <c r="H23">
-        <v>6119.068156741695</v>
+        <v>3709.018587953252</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2330,28 +3257,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C24">
-        <v>197</v>
+        <v>705</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
+        <v>568</v>
       </c>
       <c r="F24">
-        <v>6.23379</v>
+        <v>30.1219</v>
       </c>
       <c r="G24">
-        <v>-10.3623</v>
+        <v>31.4056</v>
       </c>
       <c r="H24">
-        <v>7280.9060459946</v>
+        <v>2419.263662672012</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2359,28 +3286,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C25">
-        <v>195</v>
+        <v>568</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>394</v>
       </c>
       <c r="E25" t="s">
-        <v>340</v>
+        <v>569</v>
       </c>
       <c r="F25">
-        <v>-12.0219</v>
+        <v>14.7397</v>
       </c>
       <c r="G25">
-        <v>-77.1143</v>
+        <v>-17.4902</v>
       </c>
       <c r="H25">
-        <v>14836.7311096445</v>
+        <v>7628.024226565631</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2388,28 +3315,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="C26">
-        <v>189</v>
+        <v>558</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="E26" t="s">
-        <v>341</v>
+        <v>570</v>
       </c>
       <c r="F26">
-        <v>-18.7969</v>
+        <v>12.1337</v>
       </c>
       <c r="G26">
-        <v>47.4788</v>
+        <v>15.034</v>
       </c>
       <c r="H26">
-        <v>4947.552356084463</v>
+        <v>4474.314078708201</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2417,28 +3344,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="C27">
-        <v>189</v>
+        <v>1133</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>396</v>
       </c>
       <c r="E27" t="s">
-        <v>342</v>
+        <v>571</v>
       </c>
       <c r="F27">
-        <v>8.616440000000001</v>
+        <v>41.8003</v>
       </c>
       <c r="G27">
-        <v>-13.1955</v>
+        <v>12.2389</v>
       </c>
       <c r="H27">
-        <v>7457.467133511454</v>
+        <v>4349.357994219783</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2446,28 +3373,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="C28">
-        <v>186</v>
+        <v>1664</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="E28" t="s">
-        <v>343</v>
+        <v>572</v>
       </c>
       <c r="F28">
-        <v>-24.5552</v>
+        <v>52.3514</v>
       </c>
       <c r="G28">
-        <v>25.9182</v>
+        <v>13.4939</v>
       </c>
       <c r="H28">
-        <v>6358.422306226355</v>
+        <v>4615.811779554313</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2475,28 +3402,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="C29">
-        <v>186</v>
+        <v>454</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
       <c r="E29" t="s">
-        <v>344</v>
+        <v>573</v>
       </c>
       <c r="F29">
-        <v>0.458611</v>
+        <v>-15.3308</v>
       </c>
       <c r="G29">
-        <v>9.41222</v>
+        <v>28.4526</v>
       </c>
       <c r="H29">
-        <v>5646.280550530977</v>
+        <v>5355.398446407949</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2504,28 +3431,28 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="C30">
-        <v>186</v>
+        <v>458</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="E30" t="s">
-        <v>345</v>
+        <v>574</v>
       </c>
       <c r="F30">
-        <v>0.4586</v>
+        <v>31.7226</v>
       </c>
       <c r="G30">
-        <v>9.412280000000001</v>
+        <v>35.9932</v>
       </c>
       <c r="H30">
-        <v>5646.275596375231</v>
+        <v>2024.027070811464</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2533,28 +3460,28 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="C31">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="E31" t="s">
-        <v>346</v>
+        <v>575</v>
       </c>
       <c r="F31">
-        <v>3.75527</v>
+        <v>33.2625</v>
       </c>
       <c r="G31">
-        <v>8.70872</v>
+        <v>44.2346</v>
       </c>
       <c r="H31">
-        <v>5522.420701465398</v>
+        <v>1397.800079438805</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2562,28 +3489,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="C32">
-        <v>180</v>
+        <v>751</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="E32" t="s">
-        <v>347</v>
+        <v>576</v>
       </c>
       <c r="F32">
-        <v>50.4019</v>
+        <v>24.9578</v>
       </c>
       <c r="G32">
-        <v>30.4519</v>
+        <v>46.6989</v>
       </c>
       <c r="H32">
-        <v>3514.840636160109</v>
+        <v>874.4948200511059</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2591,28 +3518,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="C33">
-        <v>179</v>
+        <v>529</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>577</v>
       </c>
       <c r="F33">
-        <v>-34.5589</v>
+        <v>-26.1392</v>
       </c>
       <c r="G33">
-        <v>-58.4164</v>
+        <v>28.246</v>
       </c>
       <c r="H33">
-        <v>13659.05093326885</v>
+        <v>6389.737587068435</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2620,28 +3547,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="C34">
-        <v>172</v>
+        <v>900</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="E34" t="s">
-        <v>349</v>
+        <v>578</v>
       </c>
       <c r="F34">
-        <v>-3.32402</v>
+        <v>-33.9461</v>
       </c>
       <c r="G34">
-        <v>29.3185</v>
+        <v>151.177</v>
       </c>
       <c r="H34">
-        <v>4231.695051937557</v>
+        <v>12038.86144273792</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2649,28 +3576,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="C35">
-        <v>171</v>
+        <v>469</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="E35" t="s">
-        <v>350</v>
+        <v>579</v>
       </c>
       <c r="F35">
-        <v>-25.9208</v>
+        <v>51.0222</v>
       </c>
       <c r="G35">
-        <v>32.5726</v>
+        <v>71.4669</v>
       </c>
       <c r="H35">
-        <v>6169.623799255426</v>
+        <v>3173.831734839541</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2678,28 +3605,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="C36">
-        <v>162</v>
+        <v>422</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="E36" t="s">
-        <v>351</v>
+        <v>580</v>
       </c>
       <c r="F36">
-        <v>7.36731</v>
+        <v>5.26139</v>
       </c>
       <c r="G36">
-        <v>134.544</v>
+        <v>-3.92629</v>
       </c>
       <c r="H36">
-        <v>8583.275386799003</v>
+        <v>6683.275571276795</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2707,28 +3634,28 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="C37">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>581</v>
       </c>
       <c r="F37">
-        <v>3.83604</v>
+        <v>50.9014</v>
       </c>
       <c r="G37">
-        <v>11.5235</v>
+        <v>4.48444</v>
       </c>
       <c r="H37">
-        <v>5249.051452015587</v>
+        <v>5153.319825418274</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2736,28 +3663,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C38">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>407</v>
       </c>
       <c r="E38" t="s">
-        <v>353</v>
+        <v>582</v>
       </c>
       <c r="F38">
-        <v>15.4763</v>
+        <v>23.5933</v>
       </c>
       <c r="G38">
-        <v>44.2197</v>
+        <v>58.2844</v>
       </c>
       <c r="H38">
-        <v>1587.516701100121</v>
+        <v>348.5265608189779</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2765,28 +3692,28 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="C39">
-        <v>153</v>
+        <v>479</v>
       </c>
       <c r="D39" t="s">
-        <v>247</v>
+        <v>408</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>583</v>
       </c>
       <c r="F39">
-        <v>15.4764</v>
+        <v>4.70159</v>
       </c>
       <c r="G39">
-        <v>44.2197</v>
+        <v>-74.1469</v>
       </c>
       <c r="H39">
-        <v>1587.508910070916</v>
+        <v>13645.13372672559</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -2794,28 +3721,28 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="C40">
-        <v>150</v>
+        <v>497</v>
       </c>
       <c r="D40" t="s">
-        <v>248</v>
+        <v>409</v>
       </c>
       <c r="E40" t="s">
-        <v>355</v>
+        <v>584</v>
       </c>
       <c r="F40">
-        <v>32.6635</v>
+        <v>21.2212</v>
       </c>
       <c r="G40">
-        <v>13.159</v>
+        <v>105.807</v>
       </c>
       <c r="H40">
-        <v>4167.541557718812</v>
+        <v>5152.397818559508</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2823,28 +3750,28 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="C41">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>410</v>
       </c>
       <c r="E41" t="s">
-        <v>356</v>
+        <v>585</v>
       </c>
       <c r="F41">
-        <v>59.4133</v>
+        <v>2.01444</v>
       </c>
       <c r="G41">
-        <v>24.8328</v>
+        <v>45.3047</v>
       </c>
       <c r="H41">
-        <v>4471.332917731767</v>
+        <v>2788.756114086932</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2852,28 +3779,28 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="C42">
-        <v>146</v>
+        <v>497</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>411</v>
       </c>
       <c r="E42" t="s">
-        <v>357</v>
+        <v>586</v>
       </c>
       <c r="F42">
-        <v>12.5335</v>
+        <v>1.35019</v>
       </c>
       <c r="G42">
-        <v>-7.94994</v>
+        <v>103.994</v>
       </c>
       <c r="H42">
-        <v>6759.954152785911</v>
+        <v>5846.919986864199</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2881,28 +3808,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="C43">
-        <v>139</v>
+        <v>460</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>412</v>
       </c>
       <c r="E43" t="s">
-        <v>358</v>
+        <v>587</v>
       </c>
       <c r="F43">
-        <v>14.0609</v>
+        <v>14.5086</v>
       </c>
       <c r="G43">
-        <v>-87.21720000000001</v>
+        <v>121.02</v>
       </c>
       <c r="H43">
-        <v>14069.33715210359</v>
+        <v>6915.22964462913</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2910,28 +3837,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="C44">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>413</v>
       </c>
       <c r="E44" t="s">
-        <v>359</v>
+        <v>588</v>
       </c>
       <c r="F44">
-        <v>14.0617</v>
+        <v>40.4675</v>
       </c>
       <c r="G44">
-        <v>-87.2169</v>
+        <v>50.0467</v>
       </c>
       <c r="H44">
-        <v>14069.25027138571</v>
+        <v>1758.310554468182</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2939,28 +3866,28 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="C45">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>414</v>
       </c>
       <c r="E45" t="s">
-        <v>360</v>
+        <v>589</v>
       </c>
       <c r="F45">
-        <v>19.4363</v>
+        <v>-13.7894</v>
       </c>
       <c r="G45">
-        <v>-99.07210000000001</v>
+        <v>33.781</v>
       </c>
       <c r="H45">
-        <v>14345.36402515887</v>
+        <v>4913.290218469429</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2968,28 +3895,28 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="C46">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>415</v>
       </c>
       <c r="E46" t="s">
-        <v>361</v>
+        <v>590</v>
       </c>
       <c r="F46">
-        <v>13.4815</v>
+        <v>41.2579</v>
       </c>
       <c r="G46">
-        <v>2.18361</v>
+        <v>69.2812</v>
       </c>
       <c r="H46">
-        <v>5700.402922925754</v>
+        <v>2192.081291234527</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2997,28 +3924,28 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="C47">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="E47" t="s">
-        <v>362</v>
+        <v>591</v>
       </c>
       <c r="F47">
-        <v>-18.0433</v>
+        <v>6.35723</v>
       </c>
       <c r="G47">
-        <v>178.559</v>
+        <v>2.38435</v>
       </c>
       <c r="H47">
-        <v>14138.37645303309</v>
+        <v>6003.1597829684</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3026,28 +3953,28 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="C48">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>417</v>
       </c>
       <c r="E48" t="s">
-        <v>363</v>
+        <v>592</v>
       </c>
       <c r="F48">
-        <v>-41.3272</v>
+        <v>13.6811</v>
       </c>
       <c r="G48">
-        <v>174.805</v>
+        <v>100.747</v>
       </c>
       <c r="H48">
-        <v>14230.18206470301</v>
+        <v>4909.055102355495</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -3055,28 +3982,28 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C49">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="E49" t="s">
-        <v>364</v>
+        <v>593</v>
       </c>
       <c r="F49">
-        <v>43.0613</v>
+        <v>-8.858370000000001</v>
       </c>
       <c r="G49">
-        <v>74.4776</v>
+        <v>13.2312</v>
       </c>
       <c r="H49">
-        <v>2634.352458314426</v>
+        <v>5923.617457828617</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -3084,28 +4011,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="C50">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
       <c r="E50" t="s">
-        <v>365</v>
+        <v>594</v>
       </c>
       <c r="F50">
-        <v>47.8431</v>
+        <v>37.9364</v>
       </c>
       <c r="G50">
-        <v>106.767</v>
+        <v>23.9445</v>
       </c>
       <c r="H50">
-        <v>5118.892423021145</v>
+        <v>3275.593150332669</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -3113,28 +4040,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C51">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>420</v>
       </c>
       <c r="E51" t="s">
-        <v>366</v>
+        <v>595</v>
       </c>
       <c r="F51">
-        <v>4.39848</v>
+        <v>18.31</v>
       </c>
       <c r="G51">
-        <v>18.5188</v>
+        <v>-15.9697</v>
       </c>
       <c r="H51">
-        <v>4561.292399217783</v>
+        <v>7335.309635228327</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -3142,28 +4069,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="C52">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>421</v>
       </c>
       <c r="E52" t="s">
-        <v>367</v>
+        <v>596</v>
       </c>
       <c r="F52">
-        <v>-9.443379999999999</v>
+        <v>-4.2517</v>
       </c>
       <c r="G52">
-        <v>147.22</v>
+        <v>15.253</v>
       </c>
       <c r="H52">
-        <v>10643.15786432056</v>
+        <v>5425.166329914303</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -3171,28 +4098,28 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="C53">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
       <c r="E53" t="s">
-        <v>368</v>
+        <v>597</v>
       </c>
       <c r="F53">
-        <v>-0.129167</v>
+        <v>-4.25167</v>
       </c>
       <c r="G53">
-        <v>-78.3575</v>
+        <v>15.2531</v>
       </c>
       <c r="H53">
-        <v>14331.02205562268</v>
+        <v>5425.155623510618</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3200,28 +4127,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="C54">
-        <v>114</v>
+        <v>334</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="E54" t="s">
-        <v>369</v>
+        <v>598</v>
       </c>
       <c r="F54">
-        <v>18.4297</v>
+        <v>29.2266</v>
       </c>
       <c r="G54">
-        <v>-69.66889999999999</v>
+        <v>47.9689</v>
       </c>
       <c r="H54">
-        <v>12355.5924008469</v>
+        <v>854.3229666268791</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -3229,28 +4156,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="C55">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>423</v>
       </c>
       <c r="E55" t="s">
-        <v>370</v>
+        <v>599</v>
       </c>
       <c r="F55">
-        <v>22.9892</v>
+        <v>8.977779999999999</v>
       </c>
       <c r="G55">
-        <v>-82.4091</v>
+        <v>38.7994</v>
       </c>
       <c r="H55">
-        <v>12999.39684207323</v>
+        <v>2514.649386881819</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -3258,28 +4185,28 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="C56">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>423</v>
       </c>
       <c r="E56" t="s">
-        <v>371</v>
+        <v>600</v>
       </c>
       <c r="F56">
-        <v>27.4032</v>
+        <v>8.97789</v>
       </c>
       <c r="G56">
-        <v>89.4246</v>
+        <v>38.7993</v>
       </c>
       <c r="H56">
-        <v>3398.388036847656</v>
+        <v>2514.647761092199</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -3287,28 +4214,28 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="C57">
-        <v>105</v>
+        <v>388</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
+        <v>424</v>
       </c>
       <c r="E57" t="s">
-        <v>372</v>
+        <v>601</v>
       </c>
       <c r="F57">
-        <v>-11.5337</v>
+        <v>55.6179</v>
       </c>
       <c r="G57">
-        <v>43.2719</v>
+        <v>12.656</v>
       </c>
       <c r="H57">
-        <v>4275.906120367576</v>
+        <v>4821.316738145491</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -3316,28 +4243,28 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="C58">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>425</v>
       </c>
       <c r="E58" t="s">
-        <v>373</v>
+        <v>602</v>
       </c>
       <c r="F58">
-        <v>37.9868</v>
+        <v>25.2731</v>
       </c>
       <c r="G58">
-        <v>58.361</v>
+        <v>51.6081</v>
       </c>
       <c r="H58">
-        <v>1440.066928582984</v>
+        <v>378.3820333775132</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -3345,28 +4272,28 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="C59">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="D59" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="E59" t="s">
-        <v>374</v>
+        <v>603</v>
       </c>
       <c r="F59">
-        <v>-17.6993</v>
+        <v>59.6519</v>
       </c>
       <c r="G59">
-        <v>168.32</v>
+        <v>17.9186</v>
       </c>
       <c r="H59">
-        <v>13099.79063272925</v>
+        <v>4786.526838419995</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -3374,28 +4301,28 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="C60">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>267</v>
+        <v>427</v>
       </c>
       <c r="E60" t="s">
-        <v>375</v>
+        <v>604</v>
       </c>
       <c r="F60">
-        <v>-25.24</v>
+        <v>6.16561</v>
       </c>
       <c r="G60">
-        <v>-57.52</v>
+        <v>1.25451</v>
       </c>
       <c r="H60">
-        <v>13346.55047417581</v>
+        <v>6124.465545044574</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -3403,28 +4330,28 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="C61">
-        <v>92</v>
+        <v>661</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>428</v>
       </c>
       <c r="E61" t="s">
-        <v>376</v>
+        <v>605</v>
       </c>
       <c r="F61">
-        <v>9.07136</v>
+        <v>40.4719</v>
       </c>
       <c r="G61">
-        <v>-79.3835</v>
+        <v>-3.56264</v>
       </c>
       <c r="H61">
-        <v>13821.42018302269</v>
+        <v>5658.302680814584</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -3432,28 +4359,28 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="C62">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="E62" t="s">
-        <v>377</v>
+        <v>606</v>
       </c>
       <c r="F62">
-        <v>14.5833</v>
+        <v>27.6966</v>
       </c>
       <c r="G62">
-        <v>-90.5275</v>
+        <v>85.3591</v>
       </c>
       <c r="H62">
-        <v>14262.57173072885</v>
+        <v>2995.756300767673</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -3461,28 +4388,28 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="C63">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>430</v>
       </c>
       <c r="E63" t="s">
-        <v>377</v>
+        <v>607</v>
       </c>
       <c r="F63">
-        <v>14.5817</v>
+        <v>60.3172</v>
       </c>
       <c r="G63">
-        <v>-90.52670000000001</v>
+        <v>24.9633</v>
       </c>
       <c r="H63">
-        <v>14262.65191341393</v>
+        <v>4537.373869400612</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -3490,28 +4417,28 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="C64">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>431</v>
       </c>
       <c r="E64" t="s">
-        <v>378</v>
+        <v>608</v>
       </c>
       <c r="F64">
-        <v>63.985</v>
+        <v>13.338</v>
       </c>
       <c r="G64">
-        <v>-22.6056</v>
+        <v>-16.6522</v>
       </c>
       <c r="H64">
-        <v>6928.067240826023</v>
+        <v>7601.941405592859</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -3519,28 +4446,28 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="C65">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
+        <v>432</v>
       </c>
       <c r="E65" t="s">
-        <v>379</v>
+        <v>609</v>
       </c>
       <c r="F65">
-        <v>4.9442</v>
+        <v>33.5607</v>
       </c>
       <c r="G65">
-        <v>114.928</v>
+        <v>72.8516</v>
       </c>
       <c r="H65">
-        <v>6725.895941329026</v>
+        <v>1926.983005777511</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3548,28 +4475,28 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="C66">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>433</v>
       </c>
       <c r="E66" t="s">
-        <v>380</v>
+        <v>610</v>
       </c>
       <c r="F66">
-        <v>13.0746</v>
+        <v>42.6967</v>
       </c>
       <c r="G66">
-        <v>-59.4925</v>
+        <v>23.4114</v>
       </c>
       <c r="H66">
-        <v>11790.24714855886</v>
+        <v>3497.273675198606</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -3577,28 +4504,28 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="C67">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>434</v>
       </c>
       <c r="E67" t="s">
-        <v>381</v>
+        <v>611</v>
       </c>
       <c r="F67">
-        <v>-21.2412</v>
+        <v>7.18076</v>
       </c>
       <c r="G67">
-        <v>-175.15</v>
+        <v>79.8841</v>
       </c>
       <c r="H67">
-        <v>14872.12706781758</v>
+        <v>3285.245755639002</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -3606,28 +4533,28 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="C68">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>435</v>
       </c>
       <c r="E68" t="s">
-        <v>382</v>
+        <v>612</v>
       </c>
       <c r="F68">
-        <v>25.039</v>
+        <v>-1.96863</v>
       </c>
       <c r="G68">
-        <v>-77.4662</v>
+        <v>30.1395</v>
       </c>
       <c r="H68">
-        <v>12486.03602220174</v>
+        <v>4058.358801134944</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -3635,28 +4562,28 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="C69">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>436</v>
       </c>
       <c r="E69" t="s">
-        <v>383</v>
+        <v>613</v>
       </c>
       <c r="F69">
-        <v>1.98616</v>
+        <v>36.851</v>
       </c>
       <c r="G69">
-        <v>-157.35</v>
+        <v>10.2272</v>
       </c>
       <c r="H69">
-        <v>15382.78497540421</v>
+        <v>4451.568919838058</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3664,28 +4591,28 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>436</v>
       </c>
       <c r="E70" t="s">
-        <v>384</v>
+        <v>614</v>
       </c>
       <c r="F70">
-        <v>-8.5464</v>
+        <v>36.8511</v>
       </c>
       <c r="G70">
-        <v>125.526</v>
+        <v>10.2272</v>
       </c>
       <c r="H70">
-        <v>8462.758341814751</v>
+        <v>4451.569617353355</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -3693,28 +4620,28 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="C71">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>437</v>
       </c>
       <c r="E71" t="s">
-        <v>385</v>
+        <v>615</v>
       </c>
       <c r="F71">
-        <v>44.0203</v>
+        <v>26.2708</v>
       </c>
       <c r="G71">
-        <v>12.6117</v>
+        <v>50.6336</v>
       </c>
       <c r="H71">
-        <v>4373.228954290365</v>
+        <v>487.7687986788414</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -3722,28 +4649,28 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="C72">
-        <v>61</v>
+        <v>510</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>438</v>
       </c>
       <c r="E72" t="s">
-        <v>386</v>
+        <v>616</v>
       </c>
       <c r="F72">
-        <v>-26.529</v>
+        <v>52.3086</v>
       </c>
       <c r="G72">
-        <v>31.3075</v>
+        <v>4.76389</v>
       </c>
       <c r="H72">
-        <v>6285.251302004667</v>
+        <v>5174.013327477973</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -3751,28 +4678,25 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="C73">
-        <v>58</v>
-      </c>
-      <c r="D73" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>387</v>
+        <v>617</v>
       </c>
       <c r="F73">
-        <v>17.5391</v>
+        <v>-22.4799</v>
       </c>
       <c r="G73">
-        <v>-88.3082</v>
+        <v>17.4709</v>
       </c>
       <c r="H73">
-        <v>13859.48997103749</v>
+        <v>6680.44282074392</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -3780,28 +4704,28 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="C74">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="E74" t="s">
-        <v>388</v>
+        <v>618</v>
       </c>
       <c r="F74">
-        <v>-9.428000000000001</v>
+        <v>38.7813</v>
       </c>
       <c r="G74">
-        <v>160.055</v>
+        <v>-9.13592</v>
       </c>
       <c r="H74">
-        <v>11930.12929504468</v>
+        <v>6148.629185201377</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -3809,28 +4733,28 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>440</v>
       </c>
       <c r="E75" t="s">
-        <v>389</v>
+        <v>619</v>
       </c>
       <c r="F75">
-        <v>-8.525</v>
+        <v>9.576890000000001</v>
       </c>
       <c r="G75">
-        <v>179.196</v>
+        <v>-13.612</v>
       </c>
       <c r="H75">
-        <v>13814.3219903106</v>
+        <v>7456.904644333535</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -3838,28 +4762,28 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="C76">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>441</v>
       </c>
       <c r="E76" t="s">
-        <v>390</v>
+        <v>620</v>
       </c>
       <c r="F76">
-        <v>-13.83</v>
+        <v>9.576890000000001</v>
       </c>
       <c r="G76">
-        <v>-172.008</v>
+        <v>-13.612</v>
       </c>
       <c r="H76">
-        <v>14928.85456668269</v>
+        <v>7456.904644333535</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -3867,28 +4791,28 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="C77">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>442</v>
       </c>
       <c r="E77" t="s">
-        <v>391</v>
+        <v>621</v>
       </c>
       <c r="F77">
-        <v>-29.4623</v>
+        <v>12.3532</v>
       </c>
       <c r="G77">
-        <v>27.5525</v>
+        <v>-1.51242</v>
       </c>
       <c r="H77">
-        <v>6744.579562340848</v>
+        <v>6119.068156741695</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -3896,28 +4820,28 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="C78">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>443</v>
       </c>
       <c r="E78" t="s">
-        <v>392</v>
+        <v>622</v>
       </c>
       <c r="F78">
-        <v>17.3112</v>
+        <v>6.23379</v>
       </c>
       <c r="G78">
-        <v>-62.7187</v>
+        <v>-10.3623</v>
       </c>
       <c r="H78">
-        <v>11829.39102631359</v>
+        <v>7280.9060459946</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -3925,28 +4849,28 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="C79">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>284</v>
+        <v>444</v>
       </c>
       <c r="E79" t="s">
-        <v>393</v>
+        <v>623</v>
       </c>
       <c r="F79">
-        <v>17.3114</v>
+        <v>-12.0219</v>
       </c>
       <c r="G79">
-        <v>-62.7186</v>
+        <v>-77.1143</v>
       </c>
       <c r="H79">
-        <v>11829.36987080371</v>
+        <v>14836.7311096445</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3954,28 +4878,28 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="C80">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="E80" t="s">
-        <v>394</v>
+        <v>624</v>
       </c>
       <c r="F80">
-        <v>35.8575</v>
+        <v>-18.7969</v>
       </c>
       <c r="G80">
-        <v>14.4775</v>
+        <v>47.4788</v>
       </c>
       <c r="H80">
-        <v>4062.740397029754</v>
+        <v>4947.552356084463</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3983,28 +4907,28 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="C81">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>446</v>
       </c>
       <c r="E81" t="s">
-        <v>395</v>
+        <v>625</v>
       </c>
       <c r="F81">
-        <v>-16.5133</v>
+        <v>8.616440000000001</v>
       </c>
       <c r="G81">
-        <v>-68.1923</v>
+        <v>-13.1955</v>
       </c>
       <c r="H81">
-        <v>14119.98315695238</v>
+        <v>7457.467133511454</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -4012,28 +4936,28 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="C82">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="E82" t="s">
-        <v>396</v>
+        <v>626</v>
       </c>
       <c r="F82">
-        <v>35.1547</v>
+        <v>-24.5552</v>
       </c>
       <c r="G82">
-        <v>33.4961</v>
+        <v>25.9182</v>
       </c>
       <c r="H82">
-        <v>2366.997687373771</v>
+        <v>6358.422306226355</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -4041,28 +4965,28 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="C83">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
+        <v>448</v>
       </c>
       <c r="E83" t="s">
-        <v>397</v>
+        <v>627</v>
       </c>
       <c r="F83">
-        <v>15.5895</v>
+        <v>0.458611</v>
       </c>
       <c r="G83">
-        <v>32.5532</v>
+        <v>9.41222</v>
       </c>
       <c r="H83">
-        <v>2604.620821434481</v>
+        <v>5646.280550530977</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -4070,28 +4994,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="C84">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="E84" t="s">
-        <v>398</v>
+        <v>628</v>
       </c>
       <c r="F84">
-        <v>9.99386</v>
+        <v>0.4586</v>
       </c>
       <c r="G84">
-        <v>-84.2088</v>
+        <v>9.412280000000001</v>
       </c>
       <c r="H84">
-        <v>14154.90662007242</v>
+        <v>5646.275596375231</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -4099,28 +5023,28 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="C85">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="E85" t="s">
-        <v>399</v>
+        <v>629</v>
       </c>
       <c r="F85">
-        <v>46.9744</v>
+        <v>60.1939</v>
       </c>
       <c r="G85">
-        <v>8.396940000000001</v>
+        <v>11.1004</v>
       </c>
       <c r="H85">
-        <v>4771.446832249841</v>
+        <v>5140.270652699632</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -4128,28 +5052,28 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="C86">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="E86" t="s">
-        <v>400</v>
+        <v>581</v>
       </c>
       <c r="F86">
-        <v>18.58</v>
+        <v>50.9014</v>
       </c>
       <c r="G86">
-        <v>-72.2925</v>
+        <v>4.48444</v>
       </c>
       <c r="H86">
-        <v>12562.55928321518</v>
+        <v>5153.319825418274</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -4157,28 +5081,28 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="C87">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="E87" t="s">
-        <v>401</v>
+        <v>630</v>
       </c>
       <c r="F87">
-        <v>18.58</v>
+        <v>3.75527</v>
       </c>
       <c r="G87">
-        <v>-72.2925</v>
+        <v>8.70872</v>
       </c>
       <c r="H87">
-        <v>12562.55928321518</v>
+        <v>5522.420701465398</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -4186,28 +5110,28 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="C88">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="E88" t="s">
-        <v>402</v>
+        <v>631</v>
       </c>
       <c r="F88">
-        <v>17.9357</v>
+        <v>-34.5589</v>
       </c>
       <c r="G88">
-        <v>-76.78749999999999</v>
+        <v>-58.4164</v>
       </c>
       <c r="H88">
-        <v>12971.09750529364</v>
+        <v>13659.05093326885</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4215,28 +5139,28 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="C89">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="E89" t="s">
-        <v>403</v>
+        <v>632</v>
       </c>
       <c r="F89">
-        <v>17.9883</v>
+        <v>-3.32402</v>
       </c>
       <c r="G89">
-        <v>102.563</v>
+        <v>29.3185</v>
       </c>
       <c r="H89">
-        <v>4927.969696620392</v>
+        <v>4231.695051937557</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -4244,28 +5168,28 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C90">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>633</v>
       </c>
       <c r="F90">
-        <v>17.1367</v>
+        <v>7.36731</v>
       </c>
       <c r="G90">
-        <v>-61.7927</v>
+        <v>134.544</v>
       </c>
       <c r="H90">
-        <v>11758.05472110187</v>
+        <v>8583.275386799003</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -4273,28 +5197,28 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="C91">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="E91" t="s">
-        <v>405</v>
+        <v>634</v>
       </c>
       <c r="F91">
-        <v>12.0042</v>
+        <v>33.8209</v>
       </c>
       <c r="G91">
-        <v>-61.7862</v>
+        <v>35.4884</v>
       </c>
       <c r="H91">
-        <v>12064.52935527512</v>
+        <v>2142.676062220869</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -4302,28 +5226,28 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="C92">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="D92" t="s">
-        <v>296</v>
+        <v>455</v>
       </c>
       <c r="E92" t="s">
-        <v>406</v>
+        <v>635</v>
       </c>
       <c r="F92">
-        <v>54.6341</v>
+        <v>4.87201</v>
       </c>
       <c r="G92">
-        <v>25.2858</v>
+        <v>31.6011</v>
       </c>
       <c r="H92">
-        <v>4090.339031959696</v>
+        <v>3394.714651416399</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -4331,28 +5255,28 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="C93">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="E93" t="s">
-        <v>407</v>
+        <v>636</v>
       </c>
       <c r="F93">
-        <v>0.378175</v>
+        <v>3.83604</v>
       </c>
       <c r="G93">
-        <v>6.71215</v>
+        <v>11.5235</v>
       </c>
       <c r="H93">
-        <v>5905.149915090722</v>
+        <v>5249.051452015587</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -4360,28 +5284,28 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="C94">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>457</v>
       </c>
       <c r="E94" t="s">
-        <v>408</v>
+        <v>637</v>
       </c>
       <c r="F94">
-        <v>14.0202</v>
+        <v>15.4763</v>
       </c>
       <c r="G94">
-        <v>-60.9929</v>
+        <v>44.2197</v>
       </c>
       <c r="H94">
-        <v>11872.94599086837</v>
+        <v>1587.516701100121</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -4389,28 +5313,28 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="C95">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="E95" t="s">
-        <v>409</v>
+        <v>638</v>
       </c>
       <c r="F95">
-        <v>-34.8384</v>
+        <v>15.4764</v>
       </c>
       <c r="G95">
-        <v>-56.0308</v>
+        <v>44.2197</v>
       </c>
       <c r="H95">
-        <v>13449.42792160536</v>
+        <v>1587.508910070916</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -4418,28 +5342,28 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="C96">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>458</v>
       </c>
       <c r="E96" t="s">
-        <v>410</v>
+        <v>639</v>
       </c>
       <c r="F96">
-        <v>10.6012</v>
+        <v>32.6635</v>
       </c>
       <c r="G96">
-        <v>-66.99120000000001</v>
+        <v>13.159</v>
       </c>
       <c r="H96">
-        <v>12626.04365042625</v>
+        <v>4167.541557718812</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -4447,28 +5371,28 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="C97">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>459</v>
       </c>
       <c r="E97" t="s">
-        <v>410</v>
+        <v>640</v>
       </c>
       <c r="F97">
-        <v>10.6012</v>
+        <v>52.1657</v>
       </c>
       <c r="G97">
-        <v>-66.99120000000001</v>
+        <v>20.9671</v>
       </c>
       <c r="H97">
-        <v>12626.04365042625</v>
+        <v>4157.10634709943</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -4476,28 +5400,28 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
-        <v>301</v>
+        <v>460</v>
       </c>
       <c r="E98" t="s">
-        <v>411</v>
+        <v>641</v>
       </c>
       <c r="F98">
-        <v>5.45283</v>
+        <v>23.8433</v>
       </c>
       <c r="G98">
-        <v>-55.1878</v>
+        <v>90.3978</v>
       </c>
       <c r="H98">
-        <v>11799.08394544785</v>
+        <v>3542.905550034026</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4505,28 +5429,28 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C99">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D99" t="s">
-        <v>302</v>
+        <v>461</v>
       </c>
       <c r="E99" t="s">
-        <v>412</v>
+        <v>642</v>
       </c>
       <c r="F99">
-        <v>15.547</v>
+        <v>59.4133</v>
       </c>
       <c r="G99">
-        <v>-61.3</v>
+        <v>24.8328</v>
       </c>
       <c r="H99">
-        <v>11809.97038393122</v>
+        <v>4471.332917731767</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -4534,28 +5458,28 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>462</v>
       </c>
       <c r="E100" t="s">
-        <v>413</v>
+        <v>643</v>
       </c>
       <c r="F100">
-        <v>24.0633</v>
+        <v>12.5335</v>
       </c>
       <c r="G100">
-        <v>-74.524</v>
+        <v>-7.94994</v>
       </c>
       <c r="H100">
-        <v>12342.92642629122</v>
+        <v>6759.954152785911</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -4563,28 +5487,28 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C101">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="E101" t="s">
-        <v>414</v>
+        <v>571</v>
       </c>
       <c r="F101">
-        <v>41.9616</v>
+        <v>41.8003</v>
       </c>
       <c r="G101">
-        <v>21.6214</v>
+        <v>12.2389</v>
       </c>
       <c r="H101">
-        <v>3604.165930872115</v>
+        <v>4349.357994219783</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -4592,28 +5516,28 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="C102">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="E102" t="s">
-        <v>415</v>
+        <v>644</v>
       </c>
       <c r="F102">
-        <v>14.9245</v>
+        <v>14.0609</v>
       </c>
       <c r="G102">
-        <v>-23.4935</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="H102">
-        <v>8219.198323931221</v>
+        <v>14069.33715210359</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -4621,28 +5545,28 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="C103">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D103" t="s">
-        <v>305</v>
+        <v>463</v>
       </c>
       <c r="E103" t="s">
-        <v>416</v>
+        <v>645</v>
       </c>
       <c r="F103">
-        <v>6.9851</v>
+        <v>14.0617</v>
       </c>
       <c r="G103">
-        <v>158.209</v>
+        <v>-87.2169</v>
       </c>
       <c r="H103">
-        <v>10964.52050301598</v>
+        <v>14069.25027138571</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -4650,28 +5574,28 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="C104">
-        <v>24</v>
+        <v>566</v>
       </c>
       <c r="D104" t="s">
-        <v>306</v>
+        <v>464</v>
       </c>
       <c r="E104" t="s">
-        <v>417</v>
+        <v>646</v>
       </c>
       <c r="F104">
-        <v>-19.079</v>
+        <v>19.4363</v>
       </c>
       <c r="G104">
-        <v>-169.926</v>
+        <v>-99.07210000000001</v>
       </c>
       <c r="H104">
-        <v>15331.82040427179</v>
+        <v>14345.36402515887</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -4679,28 +5603,28 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C105">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="D105" t="s">
-        <v>307</v>
+        <v>465</v>
       </c>
       <c r="E105" t="s">
-        <v>418</v>
+        <v>647</v>
       </c>
       <c r="F105">
-        <v>42.3594</v>
+        <v>53.4213</v>
       </c>
       <c r="G105">
-        <v>19.2519</v>
+        <v>-6.27007</v>
       </c>
       <c r="H105">
-        <v>3803.613691305746</v>
+        <v>5926.323546573898</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -4708,28 +5632,28 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="C106">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>308</v>
+        <v>466</v>
       </c>
       <c r="E106" t="s">
-        <v>419</v>
+        <v>648</v>
       </c>
       <c r="F106">
-        <v>-21.2027</v>
+        <v>13.4815</v>
       </c>
       <c r="G106">
-        <v>-159.806</v>
+        <v>2.18361</v>
       </c>
       <c r="H106">
-        <v>16414.07949860847</v>
+        <v>5700.402922925754</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4737,28 +5661,28 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D107" t="s">
-        <v>309</v>
+        <v>467</v>
       </c>
       <c r="E107" t="s">
-        <v>420</v>
+        <v>649</v>
       </c>
       <c r="F107">
-        <v>-0.547458</v>
+        <v>-18.0433</v>
       </c>
       <c r="G107">
-        <v>166.919</v>
+        <v>178.559</v>
       </c>
       <c r="H107">
-        <v>12204.30748282988</v>
+        <v>14138.37645303309</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -4766,28 +5690,28 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D108" t="s">
-        <v>310</v>
+        <v>468</v>
       </c>
       <c r="E108" t="s">
-        <v>421</v>
+        <v>650</v>
       </c>
       <c r="F108">
-        <v>6.49855</v>
+        <v>-41.3272</v>
       </c>
       <c r="G108">
-        <v>-58.2541</v>
+        <v>174.805</v>
       </c>
       <c r="H108">
-        <v>12041.09325926138</v>
+        <v>14230.18206470301</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4795,28 +5719,28 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C109">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>469</v>
       </c>
       <c r="E109" t="s">
-        <v>422</v>
+        <v>651</v>
       </c>
       <c r="F109">
-        <v>10.5954</v>
+        <v>43.0613</v>
       </c>
       <c r="G109">
-        <v>-61.3372</v>
+        <v>74.4776</v>
       </c>
       <c r="H109">
-        <v>12104.87342223902</v>
+        <v>2634.352458314426</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4824,28 +5748,28 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D110" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="E110" t="s">
-        <v>423</v>
+        <v>652</v>
       </c>
       <c r="F110">
-        <v>13.1443</v>
+        <v>47.8431</v>
       </c>
       <c r="G110">
-        <v>-61.2109</v>
+        <v>106.767</v>
       </c>
       <c r="H110">
-        <v>11944.55832047683</v>
+        <v>5118.892423021145</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -4853,28 +5777,28 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D111" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="E111" t="s">
-        <v>424</v>
+        <v>653</v>
       </c>
       <c r="F111">
-        <v>42.3386</v>
+        <v>-4.67434</v>
       </c>
       <c r="G111">
-        <v>1.40917</v>
+        <v>55.5218</v>
       </c>
       <c r="H111">
-        <v>5245.48146877055</v>
+        <v>3310.975061295877</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -4882,28 +5806,28 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>472</v>
       </c>
       <c r="E112" t="s">
-        <v>425</v>
+        <v>654</v>
       </c>
       <c r="F112">
-        <v>42.3386</v>
+        <v>38.5433</v>
       </c>
       <c r="G112">
-        <v>1.40917</v>
+        <v>68.825</v>
       </c>
       <c r="H112">
-        <v>5245.48146877055</v>
+        <v>1943.052710065926</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -4911,28 +5835,28 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D113" t="s">
-        <v>314</v>
+        <v>473</v>
       </c>
       <c r="E113" t="s">
-        <v>426</v>
+        <v>655</v>
       </c>
       <c r="F113">
-        <v>46.9277</v>
+        <v>4.39848</v>
       </c>
       <c r="G113">
-        <v>28.931</v>
+        <v>18.5188</v>
       </c>
       <c r="H113">
-        <v>3352.541593141836</v>
+        <v>4561.292399217783</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4940,28 +5864,28 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
+        <v>474</v>
       </c>
       <c r="E114" t="s">
-        <v>427</v>
+        <v>656</v>
       </c>
       <c r="F114">
-        <v>12.1415</v>
+        <v>-0.129167</v>
       </c>
       <c r="G114">
-        <v>-86.1682</v>
+        <v>-78.3575</v>
       </c>
       <c r="H114">
-        <v>14143.82036152815</v>
+        <v>14331.02205562268</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -4969,30 +5893,2408 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="D115" t="s">
+        <v>475</v>
+      </c>
+      <c r="E115" t="s">
+        <v>657</v>
+      </c>
+      <c r="F115">
+        <v>48.1103</v>
+      </c>
+      <c r="G115">
+        <v>16.5697</v>
+      </c>
+      <c r="H115">
+        <v>4226.079272716002</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116">
+        <v>139</v>
+      </c>
+      <c r="D116" t="s">
+        <v>476</v>
+      </c>
+      <c r="E116" t="s">
+        <v>658</v>
+      </c>
+      <c r="F116">
+        <v>49.6233</v>
+      </c>
+      <c r="G116">
+        <v>6.20444</v>
+      </c>
+      <c r="H116">
+        <v>4999.934295476166</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117">
+        <v>147</v>
+      </c>
+      <c r="D117" t="s">
+        <v>477</v>
+      </c>
+      <c r="E117" t="s">
+        <v>659</v>
+      </c>
+      <c r="F117">
+        <v>18.4297</v>
+      </c>
+      <c r="G117">
+        <v>-69.66889999999999</v>
+      </c>
+      <c r="H117">
+        <v>12355.5924008469</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118">
+        <v>121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>478</v>
+      </c>
+      <c r="E118" t="s">
+        <v>660</v>
+      </c>
+      <c r="F118">
+        <v>11.5466</v>
+      </c>
+      <c r="G118">
+        <v>104.844</v>
+      </c>
+      <c r="H118">
+        <v>5410.958478050406</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119">
+        <v>296</v>
+      </c>
+      <c r="D119" t="s">
+        <v>479</v>
+      </c>
+      <c r="E119" t="s">
+        <v>661</v>
+      </c>
+      <c r="F119">
+        <v>22.9892</v>
+      </c>
+      <c r="G119">
+        <v>-82.4091</v>
+      </c>
+      <c r="H119">
+        <v>12999.39684207323</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120">
+        <v>198</v>
+      </c>
+      <c r="D120" t="s">
+        <v>480</v>
+      </c>
+      <c r="E120" t="s">
+        <v>662</v>
+      </c>
+      <c r="F120">
+        <v>44.5711</v>
+      </c>
+      <c r="G120">
+        <v>26.085</v>
+      </c>
+      <c r="H120">
+        <v>3395.956728747976</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121">
+        <v>106</v>
+      </c>
+      <c r="D121" t="s">
+        <v>481</v>
+      </c>
+      <c r="E121" t="s">
+        <v>663</v>
+      </c>
+      <c r="F121">
+        <v>27.4032</v>
+      </c>
+      <c r="G121">
+        <v>89.4246</v>
+      </c>
+      <c r="H121">
+        <v>3398.388036847656</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>301</v>
+      </c>
+      <c r="C122">
+        <v>105</v>
+      </c>
+      <c r="D122" t="s">
+        <v>482</v>
+      </c>
+      <c r="E122" t="s">
+        <v>664</v>
+      </c>
+      <c r="F122">
+        <v>-11.5337</v>
+      </c>
+      <c r="G122">
+        <v>43.2719</v>
+      </c>
+      <c r="H122">
+        <v>4275.906120367576</v>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123">
+        <v>117</v>
+      </c>
+      <c r="D123" t="s">
+        <v>483</v>
+      </c>
+      <c r="E123" t="s">
+        <v>665</v>
+      </c>
+      <c r="F123">
+        <v>37.9868</v>
+      </c>
+      <c r="G123">
+        <v>58.361</v>
+      </c>
+      <c r="H123">
+        <v>1440.066928582984</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124">
+        <v>99</v>
+      </c>
+      <c r="D124" t="s">
+        <v>484</v>
+      </c>
+      <c r="E124" t="s">
+        <v>666</v>
+      </c>
+      <c r="F124">
+        <v>-17.6993</v>
+      </c>
+      <c r="G124">
+        <v>168.32</v>
+      </c>
+      <c r="H124">
+        <v>13099.79063272925</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C125">
+        <v>110</v>
+      </c>
+      <c r="D125" t="s">
+        <v>485</v>
+      </c>
+      <c r="E125" t="s">
+        <v>667</v>
+      </c>
+      <c r="F125">
+        <v>-25.24</v>
+      </c>
+      <c r="G125">
+        <v>-57.52</v>
+      </c>
+      <c r="H125">
+        <v>13346.55047417581</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126">
+        <v>114</v>
+      </c>
+      <c r="D126" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" t="s">
+        <v>668</v>
+      </c>
+      <c r="F126">
+        <v>9.07136</v>
+      </c>
+      <c r="G126">
+        <v>-79.3835</v>
+      </c>
+      <c r="H126">
+        <v>13821.42018302269</v>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>306</v>
+      </c>
+      <c r="C127">
+        <v>99</v>
+      </c>
+      <c r="D127" t="s">
+        <v>487</v>
+      </c>
+      <c r="E127" t="s">
+        <v>669</v>
+      </c>
+      <c r="F127">
+        <v>63.985</v>
+      </c>
+      <c r="G127">
+        <v>-22.6056</v>
+      </c>
+      <c r="H127">
+        <v>6928.067240826023</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128">
+        <v>90</v>
+      </c>
+      <c r="D128" t="s">
+        <v>488</v>
+      </c>
+      <c r="E128" t="s">
+        <v>670</v>
+      </c>
+      <c r="F128">
+        <v>40.1473</v>
+      </c>
+      <c r="G128">
+        <v>44.3959</v>
+      </c>
+      <c r="H128">
+        <v>1942.165193943087</v>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>308</v>
+      </c>
+      <c r="C129">
+        <v>89</v>
+      </c>
+      <c r="D129" t="s">
+        <v>489</v>
+      </c>
+      <c r="E129" t="s">
+        <v>671</v>
+      </c>
+      <c r="F129">
+        <v>4.9442</v>
+      </c>
+      <c r="G129">
+        <v>114.928</v>
+      </c>
+      <c r="H129">
+        <v>6725.895941329026</v>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>385</v>
+      </c>
+      <c r="E130" t="s">
+        <v>560</v>
+      </c>
+      <c r="F130">
+        <v>32.0114</v>
+      </c>
+      <c r="G130">
+        <v>34.8867</v>
+      </c>
+      <c r="H130">
+        <v>2133.488294911567</v>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131">
+        <v>82</v>
+      </c>
+      <c r="D131" t="s">
+        <v>490</v>
+      </c>
+      <c r="E131" t="s">
+        <v>672</v>
+      </c>
+      <c r="F131">
+        <v>13.0746</v>
+      </c>
+      <c r="G131">
+        <v>-59.4925</v>
+      </c>
+      <c r="H131">
+        <v>11790.24714855886</v>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132" t="s">
+        <v>491</v>
+      </c>
+      <c r="E132" t="s">
+        <v>673</v>
+      </c>
+      <c r="F132">
+        <v>47.4298</v>
+      </c>
+      <c r="G132">
+        <v>19.2611</v>
+      </c>
+      <c r="H132">
+        <v>4011.001895984378</v>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133">
+        <v>79</v>
+      </c>
+      <c r="D133" t="s">
+        <v>492</v>
+      </c>
+      <c r="E133" t="s">
+        <v>674</v>
+      </c>
+      <c r="F133">
+        <v>-21.2412</v>
+      </c>
+      <c r="G133">
+        <v>-175.15</v>
+      </c>
+      <c r="H133">
+        <v>14872.12706781758</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134">
+        <v>79</v>
+      </c>
+      <c r="D134" t="s">
+        <v>493</v>
+      </c>
+      <c r="E134" t="s">
+        <v>675</v>
+      </c>
+      <c r="F134">
+        <v>11.5473</v>
+      </c>
+      <c r="G134">
+        <v>43.1595</v>
+      </c>
+      <c r="H134">
+        <v>1988.305231491353</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135">
+        <v>78</v>
+      </c>
+      <c r="D135" t="s">
+        <v>494</v>
+      </c>
+      <c r="E135" t="s">
+        <v>676</v>
+      </c>
+      <c r="F135">
+        <v>25.039</v>
+      </c>
+      <c r="G135">
+        <v>-77.4662</v>
+      </c>
+      <c r="H135">
+        <v>12486.03602220174</v>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136">
+        <v>194</v>
+      </c>
+      <c r="D136" t="s">
+        <v>495</v>
+      </c>
+      <c r="E136" t="s">
+        <v>677</v>
+      </c>
+      <c r="F136">
+        <v>35.6892</v>
+      </c>
+      <c r="G136">
+        <v>51.3134</v>
+      </c>
+      <c r="H136">
+        <v>1220.288260261259</v>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137">
+        <v>71</v>
+      </c>
+      <c r="D137" t="s">
+        <v>496</v>
+      </c>
+      <c r="E137" t="s">
+        <v>678</v>
+      </c>
+      <c r="F137">
+        <v>1.98616</v>
+      </c>
+      <c r="G137">
+        <v>-157.35</v>
+      </c>
+      <c r="H137">
+        <v>15382.78497540421</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
         <v>316</v>
       </c>
-      <c r="E115" t="s">
+      <c r="C138">
+        <v>71</v>
+      </c>
+      <c r="D138" t="s">
+        <v>497</v>
+      </c>
+      <c r="E138" t="s">
+        <v>679</v>
+      </c>
+      <c r="F138">
+        <v>4.19183</v>
+      </c>
+      <c r="G138">
+        <v>73.5291</v>
+      </c>
+      <c r="H138">
+        <v>3033.748862710535</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>317</v>
+      </c>
+      <c r="C139">
+        <v>70</v>
+      </c>
+      <c r="D139" t="s">
+        <v>498</v>
+      </c>
+      <c r="E139" t="s">
+        <v>680</v>
+      </c>
+      <c r="F139">
+        <v>-8.5464</v>
+      </c>
+      <c r="G139">
+        <v>125.526</v>
+      </c>
+      <c r="H139">
+        <v>8462.758341814751</v>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140">
+        <v>146</v>
+      </c>
+      <c r="D140" t="s">
+        <v>499</v>
+      </c>
+      <c r="E140" t="s">
+        <v>681</v>
+      </c>
+      <c r="F140">
+        <v>50.1008</v>
+      </c>
+      <c r="G140">
+        <v>14.26</v>
+      </c>
+      <c r="H140">
+        <v>4467.175522335179</v>
+      </c>
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141">
+        <v>62</v>
+      </c>
+      <c r="D141" t="s">
+        <v>500</v>
+      </c>
+      <c r="E141" t="s">
+        <v>682</v>
+      </c>
+      <c r="F141">
+        <v>-26.529</v>
+      </c>
+      <c r="G141">
+        <v>31.3075</v>
+      </c>
+      <c r="H141">
+        <v>6285.251302004667</v>
+      </c>
+      <c r="I141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142">
+        <v>67</v>
+      </c>
+      <c r="D142" t="s">
+        <v>501</v>
+      </c>
+      <c r="E142" t="s">
+        <v>683</v>
+      </c>
+      <c r="F142">
+        <v>41.6692</v>
+      </c>
+      <c r="G142">
+        <v>44.9547</v>
+      </c>
+      <c r="H142">
+        <v>2058.222099325025</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143">
+        <v>59</v>
+      </c>
+      <c r="D143" t="s">
+        <v>502</v>
+      </c>
+      <c r="E143" t="s">
+        <v>684</v>
+      </c>
+      <c r="F143">
+        <v>17.5391</v>
+      </c>
+      <c r="G143">
+        <v>-88.3082</v>
+      </c>
+      <c r="H143">
+        <v>13859.48997103749</v>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144">
+        <v>60</v>
+      </c>
+      <c r="D144" t="s">
+        <v>503</v>
+      </c>
+      <c r="E144" t="s">
+        <v>685</v>
+      </c>
+      <c r="F144">
+        <v>-20.4302</v>
+      </c>
+      <c r="G144">
+        <v>57.6836</v>
+      </c>
+      <c r="H144">
+        <v>5060.276656340373</v>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145">
+        <v>74</v>
+      </c>
+      <c r="D145" t="s">
+        <v>504</v>
+      </c>
+      <c r="E145" t="s">
+        <v>686</v>
+      </c>
+      <c r="F145">
+        <v>46.2237</v>
+      </c>
+      <c r="G145">
+        <v>14.4576</v>
+      </c>
+      <c r="H145">
+        <v>4302.14030831915</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146">
+        <v>56</v>
+      </c>
+      <c r="D146" t="s">
+        <v>505</v>
+      </c>
+      <c r="E146" t="s">
+        <v>687</v>
+      </c>
+      <c r="F146">
+        <v>-9.428000000000001</v>
+      </c>
+      <c r="G146">
+        <v>160.055</v>
+      </c>
+      <c r="H146">
+        <v>11930.12929504468</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>506</v>
+      </c>
+      <c r="E147" t="s">
+        <v>688</v>
+      </c>
+      <c r="F147">
+        <v>-8.525</v>
+      </c>
+      <c r="G147">
+        <v>179.196</v>
+      </c>
+      <c r="H147">
+        <v>13814.3219903106</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>326</v>
+      </c>
+      <c r="C148">
+        <v>53</v>
+      </c>
+      <c r="D148" t="s">
+        <v>507</v>
+      </c>
+      <c r="E148" t="s">
+        <v>689</v>
+      </c>
+      <c r="F148">
+        <v>-13.83</v>
+      </c>
+      <c r="G148">
+        <v>-172.008</v>
+      </c>
+      <c r="H148">
+        <v>14928.85456668269</v>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149">
+        <v>293</v>
+      </c>
+      <c r="D149" t="s">
+        <v>508</v>
+      </c>
+      <c r="E149" t="s">
+        <v>690</v>
+      </c>
+      <c r="F149">
+        <v>47.4647</v>
+      </c>
+      <c r="G149">
+        <v>8.54917</v>
+      </c>
+      <c r="H149">
+        <v>4773.283196580763</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
+        <v>328</v>
+      </c>
+      <c r="C150">
+        <v>86</v>
+      </c>
+      <c r="D150" t="s">
+        <v>504</v>
+      </c>
+      <c r="E150" t="s">
+        <v>691</v>
+      </c>
+      <c r="F150">
+        <v>48.1702</v>
+      </c>
+      <c r="G150">
+        <v>17.2127</v>
+      </c>
+      <c r="H150">
+        <v>4184.725593262381</v>
+      </c>
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151">
+        <v>69</v>
+      </c>
+      <c r="D151" t="s">
+        <v>509</v>
+      </c>
+      <c r="E151" t="s">
+        <v>692</v>
+      </c>
+      <c r="F151">
+        <v>53.8825</v>
+      </c>
+      <c r="G151">
+        <v>28.0307</v>
+      </c>
+      <c r="H151">
+        <v>3901.615013086867</v>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152">
+        <v>49</v>
+      </c>
+      <c r="D152" t="s">
+        <v>510</v>
+      </c>
+      <c r="E152" t="s">
+        <v>693</v>
+      </c>
+      <c r="F152">
+        <v>-29.4623</v>
+      </c>
+      <c r="G152">
+        <v>27.5525</v>
+      </c>
+      <c r="H152">
+        <v>6744.579562340848</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153">
+        <v>48</v>
+      </c>
+      <c r="D153" t="s">
+        <v>511</v>
+      </c>
+      <c r="E153" t="s">
+        <v>694</v>
+      </c>
+      <c r="F153">
+        <v>17.3112</v>
+      </c>
+      <c r="G153">
+        <v>-62.7187</v>
+      </c>
+      <c r="H153">
+        <v>11829.39102631359</v>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154">
+        <v>48</v>
+      </c>
+      <c r="D154" t="s">
+        <v>511</v>
+      </c>
+      <c r="E154" t="s">
+        <v>695</v>
+      </c>
+      <c r="F154">
+        <v>17.3114</v>
+      </c>
+      <c r="G154">
+        <v>-62.7186</v>
+      </c>
+      <c r="H154">
+        <v>11829.36987080371</v>
+      </c>
+      <c r="I154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155">
+        <v>52</v>
+      </c>
+      <c r="D155" t="s">
+        <v>512</v>
+      </c>
+      <c r="E155" t="s">
+        <v>696</v>
+      </c>
+      <c r="F155">
+        <v>35.8575</v>
+      </c>
+      <c r="G155">
+        <v>14.4775</v>
+      </c>
+      <c r="H155">
+        <v>4062.740397029754</v>
+      </c>
+      <c r="I155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156">
+        <v>59</v>
+      </c>
+      <c r="D156" t="s">
+        <v>513</v>
+      </c>
+      <c r="E156" t="s">
+        <v>697</v>
+      </c>
+      <c r="F156">
+        <v>-16.5133</v>
+      </c>
+      <c r="G156">
+        <v>-68.1923</v>
+      </c>
+      <c r="H156">
+        <v>14119.98315695238</v>
+      </c>
+      <c r="I156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157" t="s">
+        <v>334</v>
+      </c>
+      <c r="C157">
+        <v>53</v>
+      </c>
+      <c r="D157" t="s">
+        <v>514</v>
+      </c>
+      <c r="E157" t="s">
+        <v>698</v>
+      </c>
+      <c r="F157">
+        <v>43.8246</v>
+      </c>
+      <c r="G157">
+        <v>18.3315</v>
+      </c>
+      <c r="H157">
+        <v>3927.00487646895</v>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158">
+        <v>55</v>
+      </c>
+      <c r="D158" t="s">
+        <v>515</v>
+      </c>
+      <c r="E158" t="s">
+        <v>699</v>
+      </c>
+      <c r="F158">
+        <v>35.1547</v>
+      </c>
+      <c r="G158">
+        <v>33.4961</v>
+      </c>
+      <c r="H158">
+        <v>2366.997687373771</v>
+      </c>
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
+        <v>336</v>
+      </c>
+      <c r="C159">
+        <v>61</v>
+      </c>
+      <c r="D159" t="s">
+        <v>516</v>
+      </c>
+      <c r="E159" t="s">
+        <v>700</v>
+      </c>
+      <c r="F159">
+        <v>15.5895</v>
+      </c>
+      <c r="G159">
+        <v>32.5532</v>
+      </c>
+      <c r="H159">
+        <v>2604.620821434481</v>
+      </c>
+      <c r="I159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" t="s">
+        <v>337</v>
+      </c>
+      <c r="C160">
+        <v>57</v>
+      </c>
+      <c r="D160" t="s">
+        <v>517</v>
+      </c>
+      <c r="E160" t="s">
+        <v>701</v>
+      </c>
+      <c r="F160">
+        <v>56.9236</v>
+      </c>
+      <c r="G160">
+        <v>23.9711</v>
+      </c>
+      <c r="H160">
+        <v>4319.755726612008</v>
+      </c>
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s">
+        <v>338</v>
+      </c>
+      <c r="C161">
+        <v>64</v>
+      </c>
+      <c r="D161" t="s">
+        <v>518</v>
+      </c>
+      <c r="E161" t="s">
+        <v>702</v>
+      </c>
+      <c r="F161">
+        <v>44.8184</v>
+      </c>
+      <c r="G161">
+        <v>20.3091</v>
+      </c>
+      <c r="H161">
+        <v>3819.387206090362</v>
+      </c>
+      <c r="I161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
+        <v>519</v>
+      </c>
+      <c r="E162" t="s">
+        <v>703</v>
+      </c>
+      <c r="F162">
+        <v>9.99386</v>
+      </c>
+      <c r="G162">
+        <v>-84.2088</v>
+      </c>
+      <c r="H162">
+        <v>14154.90662007242</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>340</v>
+      </c>
+      <c r="C163">
+        <v>43</v>
+      </c>
+      <c r="D163" t="s">
+        <v>508</v>
+      </c>
+      <c r="E163" t="s">
+        <v>704</v>
+      </c>
+      <c r="F163">
+        <v>46.9744</v>
+      </c>
+      <c r="G163">
+        <v>8.396940000000001</v>
+      </c>
+      <c r="H163">
+        <v>4771.446832249841</v>
+      </c>
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164">
+        <v>48</v>
+      </c>
+      <c r="D164" t="s">
+        <v>495</v>
+      </c>
+      <c r="E164" t="s">
+        <v>705</v>
+      </c>
+      <c r="F164">
+        <v>41.4147</v>
+      </c>
+      <c r="G164">
+        <v>19.7206</v>
+      </c>
+      <c r="H164">
+        <v>3734.448998311077</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>342</v>
+      </c>
+      <c r="C165">
+        <v>48</v>
+      </c>
+      <c r="D165" t="s">
+        <v>520</v>
+      </c>
+      <c r="E165" t="s">
+        <v>706</v>
+      </c>
+      <c r="F165">
+        <v>18.58</v>
+      </c>
+      <c r="G165">
+        <v>-72.2925</v>
+      </c>
+      <c r="H165">
+        <v>12562.55928321518</v>
+      </c>
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>342</v>
+      </c>
+      <c r="C166">
+        <v>48</v>
+      </c>
+      <c r="D166" t="s">
+        <v>520</v>
+      </c>
+      <c r="E166" t="s">
+        <v>707</v>
+      </c>
+      <c r="F166">
+        <v>18.58</v>
+      </c>
+      <c r="G166">
+        <v>-72.2925</v>
+      </c>
+      <c r="H166">
+        <v>12562.55928321518</v>
+      </c>
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167">
+        <v>46</v>
+      </c>
+      <c r="D167" t="s">
+        <v>521</v>
+      </c>
+      <c r="E167" t="s">
+        <v>708</v>
+      </c>
+      <c r="F167">
+        <v>17.9357</v>
+      </c>
+      <c r="G167">
+        <v>-76.78749999999999</v>
+      </c>
+      <c r="H167">
+        <v>12971.09750529364</v>
+      </c>
+      <c r="I167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" t="s">
+        <v>344</v>
+      </c>
+      <c r="C168">
+        <v>45</v>
+      </c>
+      <c r="D168" t="s">
+        <v>522</v>
+      </c>
+      <c r="E168" t="s">
+        <v>709</v>
+      </c>
+      <c r="F168">
+        <v>17.9883</v>
+      </c>
+      <c r="G168">
+        <v>102.563</v>
+      </c>
+      <c r="H168">
+        <v>4927.969696620392</v>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169">
+        <v>40</v>
+      </c>
+      <c r="D169" t="s">
+        <v>523</v>
+      </c>
+      <c r="E169" t="s">
+        <v>710</v>
+      </c>
+      <c r="F169">
+        <v>17.1367</v>
+      </c>
+      <c r="G169">
+        <v>-61.7927</v>
+      </c>
+      <c r="H169">
+        <v>11758.05472110187</v>
+      </c>
+      <c r="I169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170">
+        <v>39</v>
+      </c>
+      <c r="D170" t="s">
+        <v>524</v>
+      </c>
+      <c r="E170" t="s">
+        <v>711</v>
+      </c>
+      <c r="F170">
+        <v>12.0042</v>
+      </c>
+      <c r="G170">
+        <v>-61.7862</v>
+      </c>
+      <c r="H170">
+        <v>12064.52935527512</v>
+      </c>
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" t="s">
+        <v>347</v>
+      </c>
+      <c r="C171">
+        <v>60</v>
+      </c>
+      <c r="D171" t="s">
+        <v>525</v>
+      </c>
+      <c r="E171" t="s">
+        <v>712</v>
+      </c>
+      <c r="F171">
+        <v>54.6341</v>
+      </c>
+      <c r="G171">
+        <v>25.2858</v>
+      </c>
+      <c r="H171">
+        <v>4090.339031959696</v>
+      </c>
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172">
+        <v>39</v>
+      </c>
+      <c r="D172" t="s">
+        <v>526</v>
+      </c>
+      <c r="E172" t="s">
+        <v>713</v>
+      </c>
+      <c r="F172">
+        <v>0.378175</v>
+      </c>
+      <c r="G172">
+        <v>6.71215</v>
+      </c>
+      <c r="H172">
+        <v>5905.149915090722</v>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" t="s">
+        <v>349</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>527</v>
+      </c>
+      <c r="E173" t="s">
+        <v>714</v>
+      </c>
+      <c r="F173">
+        <v>14.0202</v>
+      </c>
+      <c r="G173">
+        <v>-60.9929</v>
+      </c>
+      <c r="H173">
+        <v>11872.94599086837</v>
+      </c>
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174">
+        <v>55</v>
+      </c>
+      <c r="D174" t="s">
+        <v>528</v>
+      </c>
+      <c r="E174" t="s">
+        <v>715</v>
+      </c>
+      <c r="F174">
+        <v>-34.8384</v>
+      </c>
+      <c r="G174">
+        <v>-56.0308</v>
+      </c>
+      <c r="H174">
+        <v>13449.42792160536</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>529</v>
+      </c>
+      <c r="E175" t="s">
+        <v>716</v>
+      </c>
+      <c r="F175">
+        <v>10.6012</v>
+      </c>
+      <c r="G175">
+        <v>-66.99120000000001</v>
+      </c>
+      <c r="H175">
+        <v>12626.04365042625</v>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" t="s">
+        <v>352</v>
+      </c>
+      <c r="C176">
+        <v>90</v>
+      </c>
+      <c r="D176" t="s">
+        <v>530</v>
+      </c>
+      <c r="E176" t="s">
+        <v>717</v>
+      </c>
+      <c r="F176">
+        <v>36.691</v>
+      </c>
+      <c r="G176">
+        <v>3.21541</v>
+      </c>
+      <c r="H176">
+        <v>5076.841503918451</v>
+      </c>
+      <c r="I176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>529</v>
+      </c>
+      <c r="E177" t="s">
+        <v>716</v>
+      </c>
+      <c r="F177">
+        <v>10.6012</v>
+      </c>
+      <c r="G177">
+        <v>-66.99120000000001</v>
+      </c>
+      <c r="H177">
+        <v>12626.04365042625</v>
+      </c>
+      <c r="I177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178">
+        <v>29</v>
+      </c>
+      <c r="D178" t="s">
+        <v>531</v>
+      </c>
+      <c r="E178" t="s">
+        <v>718</v>
+      </c>
+      <c r="F178">
+        <v>15.547</v>
+      </c>
+      <c r="G178">
+        <v>-61.3</v>
+      </c>
+      <c r="H178">
+        <v>11809.97038393122</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179">
+        <v>38</v>
+      </c>
+      <c r="D179" t="s">
+        <v>494</v>
+      </c>
+      <c r="E179" t="s">
+        <v>719</v>
+      </c>
+      <c r="F179">
+        <v>24.0633</v>
+      </c>
+      <c r="G179">
+        <v>-74.524</v>
+      </c>
+      <c r="H179">
+        <v>12342.92642629122</v>
+      </c>
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180">
+        <v>31</v>
+      </c>
+      <c r="D180" t="s">
+        <v>380</v>
+      </c>
+      <c r="E180" t="s">
+        <v>720</v>
+      </c>
+      <c r="F180">
+        <v>43.6584</v>
+      </c>
+      <c r="G180">
+        <v>7.21587</v>
+      </c>
+      <c r="H180">
+        <v>4790.372978185585</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>175</v>
+      </c>
+      <c r="B181" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181">
+        <v>32</v>
+      </c>
+      <c r="D181" t="s">
+        <v>532</v>
+      </c>
+      <c r="E181" t="s">
+        <v>721</v>
+      </c>
+      <c r="F181">
+        <v>41.9616</v>
+      </c>
+      <c r="G181">
+        <v>21.6214</v>
+      </c>
+      <c r="H181">
+        <v>3604.165930872115</v>
+      </c>
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" t="s">
+        <v>357</v>
+      </c>
+      <c r="C182">
+        <v>48</v>
+      </c>
+      <c r="D182" t="s">
+        <v>533</v>
+      </c>
+      <c r="E182" t="s">
+        <v>722</v>
+      </c>
+      <c r="F182">
+        <v>45.7429</v>
+      </c>
+      <c r="G182">
+        <v>16.0688</v>
+      </c>
+      <c r="H182">
+        <v>4166.712099726148</v>
+      </c>
+      <c r="I182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>177</v>
+      </c>
+      <c r="B183" t="s">
+        <v>358</v>
+      </c>
+      <c r="C183">
+        <v>27</v>
+      </c>
+      <c r="D183" t="s">
+        <v>534</v>
+      </c>
+      <c r="E183" t="s">
+        <v>723</v>
+      </c>
+      <c r="F183">
+        <v>14.9245</v>
+      </c>
+      <c r="G183">
+        <v>-23.4935</v>
+      </c>
+      <c r="H183">
+        <v>8219.198323931221</v>
+      </c>
+      <c r="I183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>178</v>
+      </c>
+      <c r="B184" t="s">
+        <v>359</v>
+      </c>
+      <c r="C184">
+        <v>26</v>
+      </c>
+      <c r="D184" t="s">
+        <v>535</v>
+      </c>
+      <c r="E184" t="s">
+        <v>724</v>
+      </c>
+      <c r="F184">
+        <v>6.9851</v>
+      </c>
+      <c r="G184">
+        <v>158.209</v>
+      </c>
+      <c r="H184">
+        <v>10964.52050301598</v>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" t="s">
+        <v>360</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>536</v>
+      </c>
+      <c r="E185" t="s">
+        <v>725</v>
+      </c>
+      <c r="F185">
+        <v>-19.079</v>
+      </c>
+      <c r="G185">
+        <v>-169.926</v>
+      </c>
+      <c r="H185">
+        <v>15331.82040427179</v>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" t="s">
+        <v>361</v>
+      </c>
+      <c r="C186">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s">
+        <v>537</v>
+      </c>
+      <c r="E186" t="s">
+        <v>726</v>
+      </c>
+      <c r="F186">
+        <v>42.3594</v>
+      </c>
+      <c r="G186">
+        <v>19.2519</v>
+      </c>
+      <c r="H186">
+        <v>3803.613691305746</v>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>538</v>
+      </c>
+      <c r="E187" t="s">
+        <v>727</v>
+      </c>
+      <c r="F187">
+        <v>-21.2027</v>
+      </c>
+      <c r="G187">
+        <v>-159.806</v>
+      </c>
+      <c r="H187">
+        <v>16414.07949860847</v>
+      </c>
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>182</v>
+      </c>
+      <c r="B188" t="s">
+        <v>363</v>
+      </c>
+      <c r="C188">
+        <v>21</v>
+      </c>
+      <c r="D188" t="s">
+        <v>539</v>
+      </c>
+      <c r="E188" t="s">
+        <v>728</v>
+      </c>
+      <c r="F188">
+        <v>-0.547458</v>
+      </c>
+      <c r="G188">
+        <v>166.919</v>
+      </c>
+      <c r="H188">
+        <v>12204.30748282988</v>
+      </c>
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>183</v>
+      </c>
+      <c r="B189" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
+        <v>540</v>
+      </c>
+      <c r="E189" t="s">
+        <v>729</v>
+      </c>
+      <c r="F189">
+        <v>6.49855</v>
+      </c>
+      <c r="G189">
+        <v>-58.2541</v>
+      </c>
+      <c r="H189">
+        <v>12041.09325926138</v>
+      </c>
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190">
+        <v>29</v>
+      </c>
+      <c r="D190" t="s">
+        <v>541</v>
+      </c>
+      <c r="E190" t="s">
+        <v>730</v>
+      </c>
+      <c r="F190">
+        <v>10.5954</v>
+      </c>
+      <c r="G190">
+        <v>-61.3372</v>
+      </c>
+      <c r="H190">
+        <v>12104.87342223902</v>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>185</v>
+      </c>
+      <c r="B191" t="s">
+        <v>366</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>542</v>
+      </c>
+      <c r="E191" t="s">
+        <v>731</v>
+      </c>
+      <c r="F191">
+        <v>13.1443</v>
+      </c>
+      <c r="G191">
+        <v>-61.2109</v>
+      </c>
+      <c r="H191">
+        <v>11944.55832047683</v>
+      </c>
+      <c r="I191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" t="s">
+        <v>367</v>
+      </c>
+      <c r="C192">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
         <v>428</v>
       </c>
-      <c r="F115">
+      <c r="E192" t="s">
+        <v>732</v>
+      </c>
+      <c r="F192">
+        <v>42.3386</v>
+      </c>
+      <c r="G192">
+        <v>1.40917</v>
+      </c>
+      <c r="H192">
+        <v>5245.48146877055</v>
+      </c>
+      <c r="I192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" t="s">
+        <v>367</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>428</v>
+      </c>
+      <c r="E193" t="s">
+        <v>733</v>
+      </c>
+      <c r="F193">
+        <v>42.3386</v>
+      </c>
+      <c r="G193">
+        <v>1.40917</v>
+      </c>
+      <c r="H193">
+        <v>5245.48146877055</v>
+      </c>
+      <c r="I193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>146</v>
+      </c>
+      <c r="B194" t="s">
+        <v>327</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>508</v>
+      </c>
+      <c r="E194" t="s">
+        <v>690</v>
+      </c>
+      <c r="F194">
+        <v>47.4647</v>
+      </c>
+      <c r="G194">
+        <v>8.54917</v>
+      </c>
+      <c r="H194">
+        <v>4773.283196580763</v>
+      </c>
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>187</v>
+      </c>
+      <c r="B195" t="s">
+        <v>368</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>543</v>
+      </c>
+      <c r="E195" t="s">
+        <v>734</v>
+      </c>
+      <c r="F195">
+        <v>15.2919</v>
+      </c>
+      <c r="G195">
+        <v>38.9107</v>
+      </c>
+      <c r="H195">
+        <v>2039.020269248904</v>
+      </c>
+      <c r="I195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" t="s">
+        <v>369</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>544</v>
+      </c>
+      <c r="E196" t="s">
+        <v>735</v>
+      </c>
+      <c r="F196">
+        <v>12.1415</v>
+      </c>
+      <c r="G196">
+        <v>-86.1682</v>
+      </c>
+      <c r="H196">
+        <v>14143.82036152815</v>
+      </c>
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>189</v>
+      </c>
+      <c r="B197" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>545</v>
+      </c>
+      <c r="E197" t="s">
+        <v>736</v>
+      </c>
+      <c r="F197">
         <v>39.2241</v>
       </c>
-      <c r="G115">
+      <c r="G197">
         <v>125.67</v>
       </c>
-      <c r="H115">
+      <c r="H197">
         <v>6640.198206793168</v>
       </c>
-      <c r="I115" t="b">
+      <c r="I197" t="b">
         <v>0</v>
       </c>
     </row>
